--- a/data/public/ADMIS_ATS.xlsx
+++ b/data/public/ADMIS_ATS.xlsx
@@ -556,28 +556,28 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Bouchet</t>
+          <t>Leduc</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>avenue Leroux</t>
+          <t>86, boulevard de Bailly</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>02045</t>
+          <t>94533</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Alves-les-Bains</t>
+          <t>Regnier</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
@@ -587,17 +587,13 @@
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>franck41@gmail.com</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>+33 (0)8 01 18 14 30</t>
-        </is>
-      </c>
+          <t>lwagner@bouygtel.fr</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>+33 8 03 63 82 43</t>
+          <t>+33 2 55 22 32 09</t>
         </is>
       </c>
       <c r="M2" s="3" t="n">
@@ -615,28 +611,28 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Gay</t>
+          <t>Bruneau</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>302, rue Ledoux</t>
+          <t>17, boulevard Jacquet</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>37004</t>
+          <t>37279</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>Sainte Benoît</t>
+          <t>Jourdan</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -646,17 +642,17 @@
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>augustenavarro@tiscali.fr</t>
+          <t>celinaollivier@ifrance.com</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>0173598011</t>
+          <t>0804419727</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>+33 1 20 13 29 36</t>
+          <t>0258304568</t>
         </is>
       </c>
       <c r="M3" s="3" t="n">
@@ -674,28 +670,28 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Collet</t>
+          <t>Legendre</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Édouard</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22, boulevard Marie</t>
+          <t>4, avenue de Brunet</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>85453</t>
+          <t>69926</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>Launayboeuf</t>
+          <t>Vincentdan</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -705,17 +701,17 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>valerie76@dbmail.com</t>
+          <t>gaillardvalerie@bouygtel.fr</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>04 28 07 16 21</t>
+          <t>+33 (0)1 02 88 94 42</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)1 87 49 77 01</t>
+          <t>08 09 85 75 11</t>
         </is>
       </c>
       <c r="M4" s="3" t="n">
@@ -733,28 +729,28 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Lamy</t>
+          <t>Blanchet</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Rémy</t>
+          <t>Christophe</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34, boulevard Becker</t>
+          <t>10, rue de Lecoq</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>44469</t>
+          <t>51306</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>Wagner-sur-Hoareau</t>
+          <t>Sainte Capucine</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,17 +760,13 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>andreerobin@tiscali.fr</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>+33 (0)1 19 57 71 70</t>
-        </is>
-      </c>
+          <t>hernandezsuzanne@dbmail.com</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>0801169844</t>
+          <t>0653521235</t>
         </is>
       </c>
       <c r="M5" s="3" t="n">
@@ -792,28 +784,28 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Legros</t>
+          <t>Bouvier</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Auguste</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>rue Chartier</t>
+          <t>89, rue Thierry Vaillant</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>94916</t>
+          <t>77973</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>Teixeiradan</t>
+          <t>Sainte Paulinedan</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -823,13 +815,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>jcordier@yahoo.fr</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr"/>
+          <t>michelle99@dbmail.com</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0249438379</t>
+        </is>
+      </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>0284062171</t>
+          <t>+33 (0)2 62 76 73 86</t>
         </is>
       </c>
       <c r="M6" s="3" t="n">
@@ -847,28 +843,28 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Pages</t>
+          <t>Ramos</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Sébastien</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>boulevard Sauvage</t>
+          <t>chemin de Gonzalez</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>57239</t>
+          <t>62554</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>Guichard-les-Bains</t>
+          <t>JacquesVille</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -878,17 +874,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>valetteadelaide@live.com</t>
+          <t>audrey83@girard.com</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>+33 3 14 45 53 48</t>
+          <t>+33 8 07 10 96 34</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)3 49 96 21 40</t>
+          <t>+33 (0)1 95 67 33 48</t>
         </is>
       </c>
       <c r="M7" s="3" t="n">
@@ -906,28 +902,28 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Chretien</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>Gilbert</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>51, rue de Joly</t>
+          <t>2, boulevard de Vasseur</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>13549</t>
+          <t>77200</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>Saint Thibaut</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -937,17 +933,17 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>anaisbarbe@costa.fr</t>
+          <t>aimee89@gmail.com</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0505775791</t>
+          <t>+33 (0)3 58 99 25 34</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>0580518649</t>
+          <t>0132851357</t>
         </is>
       </c>
       <c r="M8" s="3" t="n">
@@ -965,28 +961,28 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Leclerc</t>
+          <t>Jacquet</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Alfred</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>898, boulevard de Vincent</t>
+          <t>743, avenue Monique Auger</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>58230</t>
+          <t>55016</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>Blondeldan</t>
+          <t>Caron-sur-Mer</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -996,13 +992,13 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>suzannegrenier@morel.net</t>
+          <t>bhernandez@lemaitre.com</t>
         </is>
       </c>
       <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>+33 6 81 65 06 42</t>
+          <t>+33 5 06 37 94 13</t>
         </is>
       </c>
       <c r="M9" s="3" t="n">
@@ -1020,28 +1016,28 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Garnier</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Benjamin</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1, boulevard de Paul</t>
+          <t>8, avenue Bonnin</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>98653</t>
+          <t>09836</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>Dumas-sur-Mer</t>
+          <t>Riounec</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1051,17 +1047,17 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>zbenoit@boutin.org</t>
+          <t>xavierblanc@simon.fr</t>
         </is>
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>01 61 59 71 46</t>
+          <t>0231659462</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>+33 1 01 29 69 99</t>
+          <t>+33 2 78 06 55 75</t>
         </is>
       </c>
       <c r="M10" s="3" t="n">
@@ -1079,28 +1075,28 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Simon</t>
+          <t>Camus</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Michel</t>
+          <t>Pierre</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>boulevard Tessier</t>
+          <t>25, rue de Etienne</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>83871</t>
+          <t>64748</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>Masse</t>
+          <t>Sainte Eugène-sur-Mer</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1110,17 +1106,13 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>alexandrepierre@yahoo.fr</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>+33 (0)3 77 19 52 04</t>
-        </is>
-      </c>
+          <t>bessonnath@yahoo.fr</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr"/>
       <c r="L11" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)1 92 73 69 44</t>
+          <t>0184654241</t>
         </is>
       </c>
       <c r="M11" s="3" t="n">
@@ -1138,28 +1130,28 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Grondin</t>
+          <t>Duhamel</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>81, boulevard de Martin</t>
+          <t>rue de Delorme</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>85770</t>
+          <t>55148</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>Perrier</t>
+          <t>Thierry-les-Bains</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1169,17 +1161,13 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>ubuisson@free.fr</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>02 65 27 11 23</t>
-        </is>
-      </c>
+          <t>neveurichard@laposte.net</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr"/>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t>01 88 07 71 87</t>
+          <t>0196163803</t>
         </is>
       </c>
       <c r="M12" s="3" t="n">
@@ -1197,28 +1185,28 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Samson</t>
+          <t>Petit</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Marcel</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>boulevard Blanchet</t>
+          <t>3, rue Thibault Jacob</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>36227</t>
+          <t>24422</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>Menard</t>
+          <t>Saint GilbertVille</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1228,13 +1216,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>jacqueline74@loiseau.fr</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr"/>
+          <t>olivier83@gauthier.org</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>06 35 64 82 28</t>
+        </is>
+      </c>
       <c r="L13" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)5 72 80 15 70</t>
+          <t>08 08 69 06 37</t>
         </is>
       </c>
       <c r="M13" s="3" t="n">
@@ -1252,28 +1244,28 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Brunet</t>
+          <t>Peron</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Grégoire</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>rue Nath Berger</t>
+          <t>33, rue Pinto</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>83922</t>
+          <t>89299</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>Saint ArnaudeBourg</t>
+          <t>Ruiz-la-Forêt</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1283,17 +1275,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>lucyjoly@jourdan.fr</t>
+          <t>lucygermain@club-internet.fr</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>+33 1 49 91 40 15</t>
+          <t>01 21 27 09 06</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>+33 (0)3 50 71 24 51</t>
+          <t>0563933012</t>
         </is>
       </c>
       <c r="M14" s="3" t="n">
@@ -1311,28 +1303,28 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Chretien</t>
+          <t>Germain</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Augustin</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>635, rue de Bertin</t>
+          <t>rue Anastasie Roy</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>78397</t>
+          <t>51180</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>AugerBourg</t>
+          <t>Guerin</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1342,17 +1334,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>franck47@dufour.com</t>
+          <t>xaviermercier@hebert.net</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>03 24 17 52 26</t>
+          <t>01 17 76 03 33</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>0614081900</t>
+          <t>+33 (0)5 37 08 44 09</t>
         </is>
       </c>
       <c r="M15" s="3" t="n">
@@ -1370,28 +1362,28 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Perrier</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Grégoire</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>42, boulevard de Wagner</t>
+          <t>79, rue Albert</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>39294</t>
+          <t>40803</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>Teixeiraboeuf</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1401,17 +1393,17 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>aurorebernard@peltier.com</t>
+          <t>vincent13@diaz.org</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>01 83 83 39 60</t>
+          <t>06 06 51 15 22</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)1 41 62 99 37</t>
+          <t>+33 4 11 52 13 76</t>
         </is>
       </c>
       <c r="M16" s="3" t="n">
@@ -1429,28 +1421,28 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Baron</t>
+          <t>Ramos</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Yves</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>73, rue de Boulay</t>
+          <t>82, rue Grondin</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>35401</t>
+          <t>85413</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>Delattre</t>
+          <t>Pereiranec</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1460,13 +1452,13 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>xmasson@letellier.com</t>
+          <t>agnes48@delaunay.net</t>
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="inlineStr">
         <is>
-          <t>0190771757</t>
+          <t>+33 3 07 45 57 73</t>
         </is>
       </c>
       <c r="M17" s="3" t="n">
@@ -1484,28 +1476,28 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Barthelemy</t>
+          <t>Schneider</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Zacharie</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>65, chemin Thomas Jourdan</t>
+          <t>50, rue Barbe</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>45478</t>
+          <t>69906</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>GrenierBourg</t>
+          <t>Riou-sur-Moulin</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1515,17 +1507,13 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>oaubry@ifrance.com</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>0605322458</t>
-        </is>
-      </c>
+          <t>patriciade-sousa@orange.fr</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>+33 4 02 01 15 98</t>
+          <t>01 93 58 86 40</t>
         </is>
       </c>
       <c r="M18" s="3" t="n">
@@ -1543,28 +1531,28 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Boutin</t>
+          <t>Verdier</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Philippe</t>
+          <t>Thibault</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58, chemin Thibault Pineau</t>
+          <t>46, rue Masson</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>45816</t>
+          <t>45330</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>Barbedan</t>
+          <t>Sainte Eugène-les-Bains</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1574,17 +1562,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>cecile35@techer.com</t>
+          <t>colastristan@potier.com</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>+33 8 02 55 91 25</t>
+          <t>02 60 97 63 94</t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr">
         <is>
-          <t>05 35 14 27 14</t>
+          <t>0549518440</t>
         </is>
       </c>
       <c r="M19" s="3" t="n">
@@ -1602,28 +1590,28 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Dupre</t>
+          <t>Hamon</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Eugène</t>
+          <t>Bertrand</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>94, chemin de Maillot</t>
+          <t>76, rue Da Costa</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>54574</t>
+          <t>62733</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>Sainte Stéphane</t>
+          <t>Sainte Grégoire</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1633,17 +1621,17 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>ggodard@tiscali.fr</t>
+          <t>rrodrigues@voisin.com</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>01 12 53 62 49</t>
+          <t>+33 3 23 18 19 81</t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
         <is>
-          <t>05 65 55 42 59</t>
+          <t>+33 (0)8 05 32 96 26</t>
         </is>
       </c>
       <c r="M20" s="3" t="n">
@@ -1661,28 +1649,28 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Garnier</t>
+          <t>Boulay</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>William</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>boulevard Nicole Legendre</t>
+          <t>12, boulevard Fischer</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>96893</t>
+          <t>70241</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>Gonzalez-les-Bains</t>
+          <t>Neveu</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1692,13 +1680,13 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>diasthomas@voila.fr</t>
+          <t>caroncharles@sfr.fr</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="3" t="inlineStr">
         <is>
-          <t>+33 6 02 26 93 71</t>
+          <t>0642949796</t>
         </is>
       </c>
       <c r="M21" s="3" t="n">
@@ -1716,28 +1704,28 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Courtois</t>
+          <t>Gilles</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Benoît</t>
+          <t>Timothée</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3, chemin Guillon</t>
+          <t>rue Louis Brun</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>34619</t>
+          <t>24704</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>Poulain-la-Forêt</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1747,17 +1735,13 @@
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>lopezcapucine@laroche.com</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>0233547863</t>
-        </is>
-      </c>
+          <t>zmaury@jean.com</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>04 01 48 98 84</t>
+          <t>+33 6 40 08 85 18</t>
         </is>
       </c>
       <c r="M22" s="3" t="n">
@@ -1775,28 +1759,28 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Guillou</t>
+          <t>Didier</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Philippe</t>
+          <t>Christophe</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6, rue Sabine Auger</t>
+          <t>36, rue Nathalie Guillet</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>72716</t>
+          <t>32586</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>Guillotdan</t>
+          <t>Sainte Catherinenec</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1806,17 +1790,13 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>lombardvictoire@hotmail.fr</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>+33 (0)6 85 18 05 74</t>
-        </is>
-      </c>
+          <t>pelletierremy@jacob.com</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)3 90 63 38 58</t>
+          <t>0177425577</t>
         </is>
       </c>
       <c r="M23" s="3" t="n">
@@ -1834,28 +1814,28 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Brunet</t>
+          <t>Blin</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Guy</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>534, rue Ferreira</t>
+          <t>62, avenue de Vallee</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>16749</t>
+          <t>12796</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>Sainte Daniel</t>
+          <t>Parent-les-Bains</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1865,13 +1845,13 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>mahemartin@nguyen.org</t>
+          <t>alexandre29@gautier.fr</t>
         </is>
       </c>
       <c r="K24" s="3" t="inlineStr"/>
       <c r="L24" s="3" t="inlineStr">
         <is>
-          <t>+33 1 62 35 83 91</t>
+          <t>+33 1 94 70 07 67</t>
         </is>
       </c>
       <c r="M24" s="3" t="n">
@@ -1889,28 +1869,28 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Bourdon</t>
+          <t>Vidal</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Eugène</t>
+          <t>Édouard</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>96, chemin de Menard</t>
+          <t>68, chemin Auger</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>01885</t>
+          <t>12147</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>Huet</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1920,17 +1900,17 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>epelletier@live.com</t>
+          <t>vdos-santos@neveu.fr</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>+33 1 99 57 45 04</t>
+          <t>0197256141</t>
         </is>
       </c>
       <c r="L25" s="3" t="inlineStr">
         <is>
-          <t>0808229654</t>
+          <t>+33 (0)3 91 39 09 61</t>
         </is>
       </c>
       <c r="M25" s="3" t="n">
@@ -1948,28 +1928,28 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Fouquet</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Léon</t>
+          <t>Matthieu</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>chemin de Rocher</t>
+          <t>184, boulevard Luc Weber</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>39083</t>
+          <t>15049</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>Laine-sur-Jacquet</t>
+          <t>Roger</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1979,13 +1959,17 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>claireperret@laposte.net</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="inlineStr"/>
+          <t>ltraore@berthelot.fr</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>01 95 58 19 57</t>
+        </is>
+      </c>
       <c r="L26" s="3" t="inlineStr">
         <is>
-          <t>0419242304</t>
+          <t>+33 (0)2 00 82 08 83</t>
         </is>
       </c>
       <c r="M26" s="3" t="n">
@@ -2003,28 +1987,28 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Roy</t>
+          <t>Riviere</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Arthur</t>
+          <t>Alphonse</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>30, boulevard Boyer</t>
+          <t>37, rue Anouk Regnier</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>44642</t>
+          <t>92176</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>Meyerboeuf</t>
+          <t>Loiseau</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -2034,17 +2018,13 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>andrejoseph@tele2.fr</t>
-        </is>
-      </c>
-      <c r="K27" s="3" t="inlineStr">
-        <is>
-          <t>+33 4 06 78 69 64</t>
-        </is>
-      </c>
+          <t>vbonnet@hotmail.fr</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr"/>
       <c r="L27" s="3" t="inlineStr">
         <is>
-          <t>01 94 77 46 63</t>
+          <t>0294893974</t>
         </is>
       </c>
       <c r="M27" s="3" t="n">
@@ -2062,28 +2042,28 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Boucher</t>
+          <t>Deschamps</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Frédéric</t>
+          <t>Philippe</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>657, rue de Guyon</t>
+          <t>960, chemin Stéphanie Pichon</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>59027</t>
+          <t>06498</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>Sainte Adrienne</t>
+          <t>Evrard-sur-Leroy</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -2093,13 +2073,17 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>girardmaurice@noos.fr</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr"/>
+          <t>martinsnicole@hotmail.fr</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0179801720</t>
+        </is>
+      </c>
       <c r="L28" s="3" t="inlineStr">
         <is>
-          <t>0519701026</t>
+          <t>+33 8 04 63 51 03</t>
         </is>
       </c>
       <c r="M28" s="3" t="n">
@@ -2117,28 +2101,28 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Bousquet</t>
+          <t>Goncalves</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Nathalie</t>
+          <t>Chantal</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>rue Diallo</t>
+          <t>3, avenue Teixeira</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>15666</t>
+          <t>39168</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>BrunVille</t>
+          <t>Beckerdan</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2148,17 +2132,17 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>jeanninepotier@lagarde.fr</t>
+          <t>meyeraurelie@richard.com</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>+33 8 07 70 43 24</t>
+          <t>0649301333</t>
         </is>
       </c>
       <c r="L29" s="3" t="inlineStr">
         <is>
-          <t>+33 1 68 75 61 03</t>
+          <t>0302942925</t>
         </is>
       </c>
       <c r="M29" s="3" t="n">
@@ -2176,28 +2160,28 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Allard</t>
+          <t>Devaux</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Thierry</t>
+          <t>Antoine</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3, chemin de Blondel</t>
+          <t>79, rue Agathe Gonzalez</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>89814</t>
+          <t>56394</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>Hebert-sur-Mer</t>
+          <t>Blondel</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2207,17 +2191,17 @@
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>emmanuel75@yahoo.fr</t>
+          <t>cblanc@free.fr</t>
         </is>
       </c>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>0129940118</t>
+          <t>+33 8 02 15 97 71</t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t>0800403081</t>
+          <t>03 62 86 93 95</t>
         </is>
       </c>
       <c r="M30" s="3" t="n">
@@ -2235,28 +2219,28 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Weiss</t>
+          <t>Colin</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Isaac</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>rue de Dupont</t>
+          <t>43, rue de Schmitt</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>55273</t>
+          <t>25409</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>Chevalierdan</t>
+          <t>Letellier</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2266,17 +2250,17 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>guerinandre@free.fr</t>
+          <t>gerardhortense@pottier.fr</t>
         </is>
       </c>
       <c r="K31" s="3" t="inlineStr">
         <is>
-          <t>0168235073</t>
+          <t>0340275071</t>
         </is>
       </c>
       <c r="L31" s="3" t="inlineStr">
         <is>
-          <t>01 28 01 06 18</t>
+          <t>08 00 73 44 91</t>
         </is>
       </c>
       <c r="M31" s="3" t="n">
@@ -2294,28 +2278,28 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Cousin</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Marcel</t>
+          <t>Adrien</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>28, avenue Remy</t>
+          <t>299, chemin Joseph</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>14101</t>
+          <t>21389</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>Bodin</t>
+          <t>PoirierVille</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2325,13 +2309,13 @@
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>william87@leger.org</t>
+          <t>aureliegay@laine.fr</t>
         </is>
       </c>
       <c r="K32" s="3" t="inlineStr"/>
       <c r="L32" s="3" t="inlineStr">
         <is>
-          <t>+33 3 67 92 50 87</t>
+          <t>0161453165</t>
         </is>
       </c>
       <c r="M32" s="3" t="n">
@@ -2349,28 +2333,28 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>De Sousa</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Noël</t>
+          <t>Théophile</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>rue Antoine</t>
+          <t>92, rue Lelievre</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>69420</t>
+          <t>83713</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>CoulonVille</t>
+          <t>Hernandez-sur-Teixeira</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2380,17 +2364,13 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>charriermarianne@barre.fr</t>
-        </is>
-      </c>
-      <c r="K33" s="3" t="inlineStr">
-        <is>
-          <t>01 14 59 30 01</t>
-        </is>
-      </c>
+          <t>aimee96@potier.org</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr"/>
       <c r="L33" s="3" t="inlineStr">
         <is>
-          <t>+33 2 78 58 24 88</t>
+          <t>0804436083</t>
         </is>
       </c>
       <c r="M33" s="3" t="n">
@@ -2408,28 +2388,28 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Morvan</t>
+          <t>Vallee</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Sébastien</t>
+          <t>Zacharie</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>58, rue David Joly</t>
+          <t>11, rue Mathilde Barre</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>68882</t>
+          <t>78349</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>Traorenec</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2439,13 +2419,17 @@
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>garciamargaret@gosselin.org</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr"/>
+          <t>jblondel@live.com</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>+33 8 06 02 14 88</t>
+        </is>
+      </c>
       <c r="L34" s="3" t="inlineStr">
         <is>
-          <t>0551661707</t>
+          <t>02 41 69 45 33</t>
         </is>
       </c>
       <c r="M34" s="3" t="n">
@@ -2463,28 +2447,28 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Gonzalez</t>
+          <t>Guillaume</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Bertrand</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>avenue de Regnier</t>
+          <t>156, chemin Fontaine</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>74555</t>
+          <t>51575</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>Verdier-la-Forêt</t>
+          <t>Joubert-sur-Hardy</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2494,17 +2478,17 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>huguesmoreau@payet.com</t>
+          <t>parentmarcel@guibert.fr</t>
         </is>
       </c>
       <c r="K35" s="3" t="inlineStr">
         <is>
-          <t>+33 3 03 65 89 25</t>
+          <t>0341430870</t>
         </is>
       </c>
       <c r="L35" s="3" t="inlineStr">
         <is>
-          <t>+33 3 71 39 14 89</t>
+          <t>01 08 94 49 31</t>
         </is>
       </c>
       <c r="M35" s="3" t="n">
@@ -2522,28 +2506,28 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Blot</t>
+          <t>Mercier</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Sébastien</t>
+          <t>Hugues</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>766, chemin Gimenez</t>
+          <t>20, avenue Bouchet</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>73470</t>
+          <t>77161</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>Diaz</t>
+          <t>Pinto</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2553,13 +2537,17 @@
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>hortense60@hamon.com</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="inlineStr"/>
+          <t>rdumas@bouygtel.fr</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>03 05 08 04 54</t>
+        </is>
+      </c>
       <c r="L36" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)2 33 07 14 04</t>
+          <t>+33 3 95 75 72 70</t>
         </is>
       </c>
       <c r="M36" s="3" t="n">
@@ -2577,28 +2565,28 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Regnier</t>
+          <t>Rousset</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Renée</t>
+          <t>Bernadette</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>8, rue de Humbert</t>
+          <t>791, boulevard Michelle Rousseau</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>23933</t>
+          <t>51121</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>Poirier</t>
+          <t>Saint Sylvie</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2608,17 +2596,17 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>hberger@simon.com</t>
+          <t>clementroger@lemoine.fr</t>
         </is>
       </c>
       <c r="K37" s="3" t="inlineStr">
         <is>
-          <t>0296306317</t>
+          <t>+33 2 04 29 47 04</t>
         </is>
       </c>
       <c r="L37" s="3" t="inlineStr">
         <is>
-          <t>0436889870</t>
+          <t>08 03 74 96 45</t>
         </is>
       </c>
       <c r="M37" s="3" t="n">
@@ -2636,28 +2624,28 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Bertin</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Alfred</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>37, avenue Anne Guibert</t>
+          <t>76, rue de Blanc</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>30252</t>
+          <t>75925</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>Lefort</t>
+          <t>Moulin</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2667,13 +2655,13 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>camillebrun@orange.fr</t>
+          <t>nimbert@blanchet.com</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr"/>
       <c r="L38" s="3" t="inlineStr">
         <is>
-          <t>+33 8 01 61 61 54</t>
+          <t>+33 3 30 53 38 97</t>
         </is>
       </c>
       <c r="M38" s="3" t="n">
@@ -2691,28 +2679,28 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Gosselin</t>
+          <t>Seguin</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Roger</t>
+          <t>Philippe</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>93, avenue Marie</t>
+          <t>16, avenue Agathe Gay</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t>84198</t>
+          <t>86038</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>Poulain</t>
+          <t>Vincent-sur-Fabre</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2722,17 +2710,17 @@
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>brigitte26@adam.fr</t>
+          <t>kchauveau@allard.com</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>+33 (0)4 21 53 10 52</t>
+          <t>0607257209</t>
         </is>
       </c>
       <c r="L39" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)8 08 10 13 37</t>
+          <t>+33 (0)3 62 58 68 38</t>
         </is>
       </c>
       <c r="M39" s="3" t="n">
@@ -2750,28 +2738,28 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Bonneau</t>
+          <t>Teixeira</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>50, rue de Pires</t>
+          <t>boulevard de Seguin</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>80912</t>
+          <t>65542</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>Sainte VincentBourg</t>
+          <t>Gregoire-sur-Devaux</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
@@ -2781,17 +2769,17 @@
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>mleclerc@yahoo.fr</t>
+          <t>martinezamelie@gmail.com</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>01 08 79 91 35</t>
+          <t>+33 (0)8 08 06 21 12</t>
         </is>
       </c>
       <c r="L40" s="3" t="inlineStr">
         <is>
-          <t>08 03 07 35 48</t>
+          <t>06 88 67 92 35</t>
         </is>
       </c>
       <c r="M40" s="3" t="n">
@@ -2809,28 +2797,28 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Clement</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Gérard</t>
+          <t>Jean</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>51, chemin Carlier</t>
+          <t>rue Xavier Caron</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t>96652</t>
+          <t>41056</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>Gaudin-les-Bains</t>
+          <t>Saint Aurélie</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
@@ -2840,13 +2828,17 @@
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>qcarre@gmail.com</t>
-        </is>
-      </c>
-      <c r="K41" s="3" t="inlineStr"/>
+          <t>helenehenry@grenier.com</t>
+        </is>
+      </c>
+      <c r="K41" s="3" t="inlineStr">
+        <is>
+          <t>+33 (0)1 64 06 62 61</t>
+        </is>
+      </c>
       <c r="L41" s="3" t="inlineStr">
         <is>
-          <t>0410486247</t>
+          <t>+33 (0)1 39 90 63 63</t>
         </is>
       </c>
       <c r="M41" s="3" t="n">
@@ -2864,28 +2856,28 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Legendre</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>René</t>
+          <t>Gilbert</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>35, rue de Hamel</t>
+          <t>990, avenue de Marie</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>60510</t>
+          <t>79088</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>Saint Joséphine</t>
+          <t>Meyer-les-Bains</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -2895,17 +2887,17 @@
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>josephine04@gilbert.com</t>
+          <t>sallain@petit.fr</t>
         </is>
       </c>
       <c r="K42" s="3" t="inlineStr">
         <is>
-          <t>0187383801</t>
+          <t>+33 (0)1 69 76 58 29</t>
         </is>
       </c>
       <c r="L42" s="3" t="inlineStr">
         <is>
-          <t>+33 3 40 67 24 61</t>
+          <t>0173785352</t>
         </is>
       </c>
       <c r="M42" s="3" t="n">
@@ -2923,28 +2915,28 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Gautier</t>
+          <t>Briand</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Eugène</t>
+          <t>Isaac</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>39, rue de Lopes</t>
+          <t>32, chemin Lucas Salmon</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t>73632</t>
+          <t>47270</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>Guerin</t>
+          <t>Da CostaBourg</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -2954,17 +2946,13 @@
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>valerie61@tele2.fr</t>
-        </is>
-      </c>
-      <c r="K43" s="3" t="inlineStr">
-        <is>
-          <t>+33 (0)1 43 80 37 79</t>
-        </is>
-      </c>
+          <t>ceciletessier@voila.fr</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr"/>
       <c r="L43" s="3" t="inlineStr">
         <is>
-          <t>02 55 47 59 11</t>
+          <t>0166428829</t>
         </is>
       </c>
       <c r="M43" s="3" t="n">
@@ -2982,28 +2970,28 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Boulay</t>
+          <t>Chretien</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Matthieu</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>6, rue Jean Brunet</t>
+          <t>6, boulevard de Remy</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t>56361</t>
+          <t>23620</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>Lacombe</t>
+          <t>Le Goff-sur-Bourgeois</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
@@ -3013,17 +3001,17 @@
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>bruneauanouk@blanchet.fr</t>
+          <t>fredericfabre@tele2.fr</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>0254236879</t>
+          <t>+33 6 60 55 72 76</t>
         </is>
       </c>
       <c r="L44" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)8 05 24 98 25</t>
+          <t>+33 (0)2 57 47 71 38</t>
         </is>
       </c>
       <c r="M44" s="3" t="n">
@@ -3041,28 +3029,28 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Allard</t>
+          <t>Teixeira</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Noël</t>
+          <t>Alfred</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>chemin Delattre</t>
+          <t>452, chemin de Pierre</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t>73952</t>
+          <t>12344</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>Dumasdan</t>
+          <t>Payet</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -3072,13 +3060,17 @@
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>jeanne53@baron.com</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr"/>
+          <t>letelliercolette@laposte.net</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>+33 (0)8 00 95 31 75</t>
+        </is>
+      </c>
       <c r="L45" s="3" t="inlineStr">
         <is>
-          <t>0153956150</t>
+          <t>+33 (0)6 15 98 82 83</t>
         </is>
       </c>
       <c r="M45" s="3" t="n">
@@ -3096,28 +3088,28 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Begue</t>
+          <t>Morvan</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Thibaut</t>
+          <t>Philippe</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>88, avenue Alexandria Barre</t>
+          <t>rue Philippe Joseph</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>32641</t>
+          <t>16947</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>Diazdan</t>
+          <t>Reynaud</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -3127,17 +3119,17 @@
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>xmarin@gosselin.fr</t>
+          <t>etienne75@delmas.com</t>
         </is>
       </c>
       <c r="K46" s="3" t="inlineStr">
         <is>
-          <t>+33 1 76 43 56 12</t>
+          <t>0501177944</t>
         </is>
       </c>
       <c r="L46" s="3" t="inlineStr">
         <is>
-          <t>0120216051</t>
+          <t>05 30 98 74 19</t>
         </is>
       </c>
       <c r="M46" s="3" t="n">
@@ -3155,28 +3147,28 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Breton</t>
+          <t>Renard</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Honoré</t>
+          <t>Grégoire</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>17, avenue de Marie</t>
+          <t>boulevard Grondin</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>01730</t>
+          <t>59443</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>Couturier</t>
+          <t>Collin-les-Bains</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -3186,17 +3178,17 @@
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>david35@jourdan.com</t>
+          <t>tmercier@tiscali.fr</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>+33 (0)4 48 22 25 78</t>
+          <t>+33 6 90 31 90 98</t>
         </is>
       </c>
       <c r="L47" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)1 21 27 27 26</t>
+          <t>+33 (0)2 01 71 04 75</t>
         </is>
       </c>
       <c r="M47" s="3" t="n">
@@ -3214,28 +3206,28 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Gautier</t>
+          <t>Fouquet</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Thibaut</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>avenue de Lopes</t>
+          <t>97, rue Prevost</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>46412</t>
+          <t>48097</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>Delorme</t>
+          <t>Saint DanielBourg</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -3245,17 +3237,17 @@
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>ericramos@gmail.com</t>
+          <t>guillaumedevaux@devaux.org</t>
         </is>
       </c>
       <c r="K48" s="3" t="inlineStr">
         <is>
-          <t>0806825046</t>
+          <t>+33 (0)1 59 15 41 28</t>
         </is>
       </c>
       <c r="L48" s="3" t="inlineStr">
         <is>
-          <t>+33 4 36 43 25 25</t>
+          <t>+33 (0)8 01 63 50 50</t>
         </is>
       </c>
       <c r="M48" s="3" t="n">
@@ -3273,28 +3265,28 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Jourdan</t>
+          <t>Collet</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>Luc</t>
+          <t>Bertrand</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>93, rue Michaud</t>
+          <t>369, rue Maillard</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr">
         <is>
-          <t>83629</t>
+          <t>21307</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>Lelievre-sur-Francois</t>
+          <t>Saint Roland</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -3304,17 +3296,17 @@
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>vmasse@ferreira.fr</t>
+          <t>marine33@besson.fr</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>+33 (0)1 54 51 02 36</t>
+          <t>02 27 03 67 41</t>
         </is>
       </c>
       <c r="L49" s="3" t="inlineStr">
         <is>
-          <t>+33 2 76 74 17 10</t>
+          <t>+33 (0)6 37 83 73 51</t>
         </is>
       </c>
       <c r="M49" s="3" t="n">
@@ -3332,28 +3324,28 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Masson</t>
+          <t>Marie</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>49, rue Emmanuelle Renard</t>
+          <t>54, boulevard de Boucher</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="3" t="inlineStr">
         <is>
-          <t>81906</t>
+          <t>63234</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>Fernandez</t>
+          <t>Rouxdan</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
@@ -3363,17 +3355,13 @@
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>denisgrenier@sfr.fr</t>
-        </is>
-      </c>
-      <c r="K50" s="3" t="inlineStr">
-        <is>
-          <t>+33 1 28 31 77 74</t>
-        </is>
-      </c>
+          <t>capucine90@voila.fr</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr"/>
       <c r="L50" s="3" t="inlineStr">
         <is>
-          <t>02 12 81 11 15</t>
+          <t>+33 5 25 48 60 71</t>
         </is>
       </c>
       <c r="M50" s="3" t="n">
@@ -3391,28 +3379,28 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Toussaint</t>
+          <t>Gosselin</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Bernadette</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>3, chemin de Vaillant</t>
+          <t>rue Édouard Maurice</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="3" t="inlineStr">
         <is>
-          <t>68901</t>
+          <t>40422</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>Lagarde</t>
+          <t>Dupre</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
@@ -3422,17 +3410,17 @@
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>isabellelanglois@voila.fr</t>
+          <t>alicebarthelemy@voila.fr</t>
         </is>
       </c>
       <c r="K51" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)5 60 80 39 69</t>
+          <t>08 06 89 37 38</t>
         </is>
       </c>
       <c r="L51" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)3 49 93 94 98</t>
+          <t>+33 (0)5 44 20 44 04</t>
         </is>
       </c>
       <c r="M51" s="3" t="n">
@@ -3450,28 +3438,28 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Leconte</t>
+          <t>Blot</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>83, chemin Élodie Traore</t>
+          <t>52, avenue Blanc</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="3" t="inlineStr">
         <is>
-          <t>14196</t>
+          <t>13380</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>Toussaintboeuf</t>
+          <t>Sainte Adrienne-les-Bains</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -3481,17 +3469,13 @@
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>reneerichard@sfr.fr</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>0358388981</t>
-        </is>
-      </c>
+          <t>anastasie67@tele2.fr</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="3" t="inlineStr">
         <is>
-          <t>0139556424</t>
+          <t>0340163587</t>
         </is>
       </c>
       <c r="M52" s="3" t="n">
@@ -3509,28 +3493,28 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Duhamel</t>
+          <t>Bousquet</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Augustin</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>103, rue Julie Hoareau</t>
+          <t>5, rue Georges</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t>80661</t>
+          <t>42785</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>Chauvin</t>
+          <t>Sainte Margaretboeuf</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
@@ -3540,17 +3524,13 @@
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>gilbertchristiane@martins.fr</t>
-        </is>
-      </c>
-      <c r="K53" s="3" t="inlineStr">
-        <is>
-          <t>+33 (0)5 61 81 50 01</t>
-        </is>
-      </c>
+          <t>suzannebernard@roux.fr</t>
+        </is>
+      </c>
+      <c r="K53" s="3" t="inlineStr"/>
       <c r="L53" s="3" t="inlineStr">
         <is>
-          <t>+33 3 88 37 84 71</t>
+          <t>+33 (0)1 96 52 97 09</t>
         </is>
       </c>
       <c r="M53" s="3" t="n">
@@ -3568,28 +3548,28 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Allain</t>
+          <t>Bazin</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Jean</t>
+          <t>Henri</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>64, rue Barbier</t>
+          <t>126, rue de Morvan</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t>29028</t>
+          <t>26967</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>Bretonboeuf</t>
+          <t>Giraud-la-Forêt</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -3599,17 +3579,13 @@
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>ybouvier@orange.fr</t>
-        </is>
-      </c>
-      <c r="K54" s="3" t="inlineStr">
-        <is>
-          <t>0124342497</t>
-        </is>
-      </c>
+          <t>odevaux@live.com</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr"/>
       <c r="L54" s="3" t="inlineStr">
         <is>
-          <t>0412985487</t>
+          <t>01 81 96 37 50</t>
         </is>
       </c>
       <c r="M54" s="3" t="n">
@@ -3627,28 +3603,28 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Bernard</t>
+          <t>Humbert</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Honoré</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>chemin Henriette Fleury</t>
+          <t>26, avenue Francois</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t>67313</t>
+          <t>66787</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>Lambertdan</t>
+          <t>Couturier</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -3658,17 +3634,13 @@
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>eguyon@dbmail.com</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>0361491479</t>
-        </is>
-      </c>
+          <t>henriette01@allard.com</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="3" t="inlineStr">
         <is>
-          <t>04 64 75 91 82</t>
+          <t>+33 (0)4 00 06 56 48</t>
         </is>
       </c>
       <c r="M55" s="3" t="n">
@@ -3686,28 +3658,28 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Regnier</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Édouard</t>
+          <t>Laurent</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>rue Bodin</t>
+          <t>chemin Marc Joly</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t>04854</t>
+          <t>64802</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>Turpin-sur-Loiseau</t>
+          <t>Saint Capucine-sur-Mer</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -3717,13 +3689,17 @@
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>denis30@wanadoo.fr</t>
-        </is>
-      </c>
-      <c r="K56" s="3" t="inlineStr"/>
+          <t>jeromemahe@lebon.com</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr">
+        <is>
+          <t>0515075804</t>
+        </is>
+      </c>
       <c r="L56" s="3" t="inlineStr">
         <is>
-          <t>06 72 90 33 79</t>
+          <t>+33 1 31 92 73 64</t>
         </is>
       </c>
       <c r="M56" s="3" t="n">
@@ -3741,28 +3717,28 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Da Silva</t>
+          <t>Moreau</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Antoine</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>7, rue de Payet</t>
+          <t>1, chemin de Dupre</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="3" t="inlineStr">
         <is>
-          <t>71539</t>
+          <t>61478</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>Pons</t>
+          <t>Gay</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -3772,13 +3748,13 @@
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>gabriel54@lacroix.com</t>
+          <t>wlebrun@noos.fr</t>
         </is>
       </c>
       <c r="K57" s="3" t="inlineStr"/>
       <c r="L57" s="3" t="inlineStr">
         <is>
-          <t>01 86 53 31 36</t>
+          <t>+33 6 45 21 78 54</t>
         </is>
       </c>
       <c r="M57" s="3" t="n">
@@ -3796,28 +3772,28 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Seguin</t>
+          <t>Lecoq</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Guy</t>
+          <t>Thibault</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>8, boulevard Philippe Mahe</t>
+          <t>896, boulevard Martineau</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="3" t="inlineStr">
         <is>
-          <t>20775</t>
+          <t>72070</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>Roux</t>
+          <t>Lagarde-la-Forêt</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -3827,13 +3803,13 @@
       </c>
       <c r="J58" s="2" t="inlineStr">
         <is>
-          <t>honoregaillard@noos.fr</t>
+          <t>gfontaine@fouquet.com</t>
         </is>
       </c>
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="3" t="inlineStr">
         <is>
-          <t>+33 1 68 35 75 98</t>
+          <t>+33 1 36 72 41 92</t>
         </is>
       </c>
       <c r="M58" s="3" t="n">
@@ -3851,28 +3827,28 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Bonnin</t>
+          <t>Pichon</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Bertrand</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>87, rue Zoé Delannoy</t>
+          <t>62, rue Dufour</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>20047</t>
+          <t>54563</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>Blanchet</t>
+          <t>Sainte SylvieBourg</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
@@ -3882,13 +3858,13 @@
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>zthierry@gmail.com</t>
+          <t>arnaude73@meunier.com</t>
         </is>
       </c>
       <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)3 32 34 68 10</t>
+          <t>0385097632</t>
         </is>
       </c>
       <c r="M59" s="3" t="n">
@@ -3906,28 +3882,28 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Rocher</t>
+          <t>Da Silva</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Frédéric</t>
+          <t>Arthur</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>656, chemin Emmanuel Cohen</t>
+          <t>55, chemin de Richard</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
-          <t>28736</t>
+          <t>58636</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>Sainte Patrickdan</t>
+          <t>Bouvet</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
@@ -3937,17 +3913,13 @@
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>isaac17@free.fr</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="inlineStr">
-        <is>
-          <t>+33 5 25 97 58 28</t>
-        </is>
-      </c>
+          <t>henriette45@renaud.fr</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="3" t="inlineStr">
         <is>
-          <t>01 51 32 38 16</t>
+          <t>+33 (0)3 99 55 31 51</t>
         </is>
       </c>
       <c r="M60" s="3" t="n">
@@ -3965,28 +3937,28 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Gaillard</t>
+          <t>Le Gall</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Aimé</t>
+          <t>Adrien</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>80, rue de Aubert</t>
+          <t>9, chemin Lelievre</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="3" t="inlineStr">
         <is>
-          <t>36635</t>
+          <t>62194</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>Saint Michelle</t>
+          <t>DumasBourg</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
@@ -3996,13 +3968,13 @@
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>margotduval@marie.fr</t>
+          <t>jlemonnier@free.fr</t>
         </is>
       </c>
       <c r="K61" s="3" t="inlineStr"/>
       <c r="L61" s="3" t="inlineStr">
         <is>
-          <t>0174090776</t>
+          <t>08 03 64 30 16</t>
         </is>
       </c>
       <c r="M61" s="3" t="n">
@@ -4020,28 +3992,28 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Besnard</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>François</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>boulevard Barbe</t>
+          <t>99, avenue de Georges</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="3" t="inlineStr">
         <is>
-          <t>80974</t>
+          <t>01249</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>RenaultBourg</t>
+          <t>Le Gall</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
@@ -4051,17 +4023,17 @@
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>legerdanielle@hotmail.fr</t>
+          <t>schneidercolette@hamon.net</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>+33 1 32 55 75 11</t>
+          <t>04 18 66 28 55</t>
         </is>
       </c>
       <c r="L62" s="3" t="inlineStr">
         <is>
-          <t>05 91 23 35 02</t>
+          <t>06 26 61 68 29</t>
         </is>
       </c>
       <c r="M62" s="3" t="n">
@@ -4079,28 +4051,28 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Peron</t>
+          <t>Turpin</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Rémy</t>
+          <t>Aimé</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>chemin de Lemoine</t>
+          <t>37, avenue Nicolas Robert</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="3" t="inlineStr">
         <is>
-          <t>17831</t>
+          <t>73571</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>Sainte Alphonse</t>
+          <t>Faure</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
@@ -4110,17 +4082,13 @@
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>augusteguillaume@sfr.fr</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="inlineStr">
-        <is>
-          <t>+33 5 88 46 33 11</t>
-        </is>
-      </c>
+          <t>aurore63@dbmail.com</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)1 20 54 76 30</t>
+          <t>+33 2 84 77 02 96</t>
         </is>
       </c>
       <c r="M63" s="3" t="n">
@@ -4138,28 +4106,28 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Parent</t>
+          <t>Boulanger</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Agnès</t>
+          <t>Margaud</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>96, chemin de Collin</t>
+          <t>68, rue Olivie Blot</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="3" t="inlineStr">
         <is>
-          <t>39692</t>
+          <t>16166</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>Parisboeuf</t>
+          <t>Sainte Nathalienec</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
@@ -4169,17 +4137,17 @@
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>michele20@rey.com</t>
+          <t>julien29@gonzalez.fr</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>+33 1 20 13 26 07</t>
+          <t>+33 5 28 04 20 53</t>
         </is>
       </c>
       <c r="L64" s="3" t="inlineStr">
         <is>
-          <t>05 94 83 04 05</t>
+          <t>06 17 18 65 84</t>
         </is>
       </c>
       <c r="M64" s="3" t="n">
@@ -4197,28 +4165,28 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Clement</t>
+          <t>Godard</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Timothée</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>41, boulevard Alves</t>
+          <t>16, boulevard de Reynaud</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="3" t="inlineStr">
         <is>
-          <t>36324</t>
+          <t>22272</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>Lecomte-sur-Mer</t>
+          <t>Guyot</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -4228,13 +4196,17 @@
       </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>richardthomas@regnier.com</t>
-        </is>
-      </c>
-      <c r="K65" s="3" t="inlineStr"/>
+          <t>xdavid@blanchet.com</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>0372184059</t>
+        </is>
+      </c>
       <c r="L65" s="3" t="inlineStr">
         <is>
-          <t>+33 1 05 77 94 44</t>
+          <t>04 57 68 64 62</t>
         </is>
       </c>
       <c r="M65" s="3" t="n">
@@ -4252,28 +4224,28 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Leger</t>
+          <t>Boutin</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>Édith</t>
+          <t>Nathalie</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>7, boulevard de Petit</t>
+          <t>40, rue de Robert</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="3" t="inlineStr">
         <is>
-          <t>82741</t>
+          <t>35998</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>Mathieu-la-Forêt</t>
+          <t>Remy</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
@@ -4283,17 +4255,17 @@
       </c>
       <c r="J66" s="2" t="inlineStr">
         <is>
-          <t>tlambert@lefort.com</t>
+          <t>inesklein@gallet.com</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>01 80 61 96 38</t>
+          <t>0213690170</t>
         </is>
       </c>
       <c r="L66" s="3" t="inlineStr">
         <is>
-          <t>+33 5 50 11 55 44</t>
+          <t>+33 1 94 32 73 51</t>
         </is>
       </c>
       <c r="M66" s="3" t="n">
@@ -4311,28 +4283,28 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Leduc</t>
+          <t>Imbert</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>Michèle</t>
+          <t>Sophie</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>90, rue Weber</t>
+          <t>421, rue Fernandez</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="3" t="inlineStr">
         <is>
-          <t>50346</t>
+          <t>39151</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>Lecomte</t>
+          <t>Sainte Clairedan</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
@@ -4342,13 +4314,17 @@
       </c>
       <c r="J67" s="2" t="inlineStr">
         <is>
-          <t>vda-silva@voila.fr</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="inlineStr"/>
+          <t>christellepicard@yahoo.fr</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>0671143284</t>
+        </is>
+      </c>
       <c r="L67" s="3" t="inlineStr">
         <is>
-          <t>+33 3 93 08 38 28</t>
+          <t>04 72 09 53 98</t>
         </is>
       </c>
       <c r="M67" s="3" t="n">
@@ -4366,28 +4342,28 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Le Gall</t>
+          <t>Raynaud</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>Joséphine</t>
+          <t>Claire</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>615, rue Paulette Pineau</t>
+          <t>25, avenue Didier</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="3" t="inlineStr">
         <is>
-          <t>55575</t>
+          <t>40303</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>GaudinBourg</t>
+          <t>Le Goff-les-Bains</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
@@ -4397,13 +4373,17 @@
       </c>
       <c r="J68" s="2" t="inlineStr">
         <is>
-          <t>henriolivier@thomas.org</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="inlineStr"/>
+          <t>nnormand@club-internet.fr</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>+33 1 45 17 54 14</t>
+        </is>
+      </c>
       <c r="L68" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)1 86 58 19 33</t>
+          <t>+33 5 39 81 88 95</t>
         </is>
       </c>
       <c r="M68" s="3" t="n">
@@ -4421,28 +4401,28 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Turpin</t>
+          <t>Guillot</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Étienne</t>
+          <t>Gilles</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>570, rue Blanchet</t>
+          <t>73, rue Philippe Antoine</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="3" t="inlineStr">
         <is>
-          <t>37993</t>
+          <t>91017</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>Pruvost</t>
+          <t>Gilbert</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
@@ -4452,13 +4432,17 @@
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>giraudpaul@laposte.net</t>
-        </is>
-      </c>
-      <c r="K69" s="3" t="inlineStr"/>
+          <t>capucinemarion@bouygtel.fr</t>
+        </is>
+      </c>
+      <c r="K69" s="3" t="inlineStr">
+        <is>
+          <t>04 95 82 06 89</t>
+        </is>
+      </c>
       <c r="L69" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)8 05 57 05 38</t>
+          <t>+33 3 53 99 85 18</t>
         </is>
       </c>
       <c r="M69" s="3" t="n">
@@ -4476,28 +4460,28 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Cousin</t>
+          <t>Hebert</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>Xavier</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>12, chemin Marine Renard</t>
+          <t>147, rue Brunet</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="3" t="inlineStr">
         <is>
-          <t>27277</t>
+          <t>61745</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>Saint RichardVille</t>
+          <t>Sainte Margaud</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
@@ -4507,17 +4491,17 @@
       </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
-          <t>richard93@laposte.net</t>
+          <t>lpotier@valentin.com</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
-          <t>+33 (0)2 50 85 10 55</t>
+          <t>+33 6 31 39 81 90</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>+33 3 44 59 06 86</t>
+          <t>+33 (0)6 61 94 11 44</t>
         </is>
       </c>
       <c r="M70" s="3" t="n">
@@ -4535,28 +4519,28 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Lemaire</t>
+          <t>Boyer</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>Théodore</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>88, rue Marie Deschamps</t>
+          <t>14, rue Susanne Louis</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="3" t="inlineStr">
         <is>
-          <t>69168</t>
+          <t>68346</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>PagesBourg</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
@@ -4566,17 +4550,17 @@
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>bodinthierry@poulain.com</t>
+          <t>langloistimothee@noos.fr</t>
         </is>
       </c>
       <c r="K71" s="3" t="inlineStr">
         <is>
-          <t>01 12 57 82 84</t>
+          <t>0399535360</t>
         </is>
       </c>
       <c r="L71" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)3 55 88 56 10</t>
+          <t>+33 2 46 18 28 85</t>
         </is>
       </c>
       <c r="M71" s="3" t="n">
@@ -4594,28 +4578,28 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Fischer</t>
+          <t>Peltier</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Auguste</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>91, avenue Regnier</t>
+          <t>24, avenue de Marchand</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="3" t="inlineStr">
         <is>
-          <t>99123</t>
+          <t>89383</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>Saint Jules</t>
+          <t>Saint Jeannine</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -4625,17 +4609,17 @@
       </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
-          <t>malbert@pruvost.net</t>
+          <t>emilie34@ifrance.com</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
         <is>
-          <t>02 68 75 06 78</t>
+          <t>+33 5 98 42 96 03</t>
         </is>
       </c>
       <c r="L72" s="3" t="inlineStr">
         <is>
-          <t>+33 5 57 19 38 94</t>
+          <t>+33 5 82 50 88 60</t>
         </is>
       </c>
       <c r="M72" s="3" t="n">
@@ -4653,28 +4637,28 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Gilles</t>
+          <t>Michel</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Michel</t>
+          <t>René</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>681, avenue de Roussel</t>
+          <t>444, chemin Georges Guillon</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="3" t="inlineStr">
         <is>
-          <t>82105</t>
+          <t>27302</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>Tanguy</t>
+          <t>Lucas-sur-Roussel</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
@@ -4684,17 +4668,17 @@
       </c>
       <c r="J73" s="2" t="inlineStr">
         <is>
-          <t>martelremy@tele2.fr</t>
+          <t>qgaudin@free.fr</t>
         </is>
       </c>
       <c r="K73" s="2" t="inlineStr">
         <is>
-          <t>0309865598</t>
+          <t>+33 5 39 01 87 90</t>
         </is>
       </c>
       <c r="L73" s="3" t="inlineStr">
         <is>
-          <t>0150548466</t>
+          <t>0272421955</t>
         </is>
       </c>
       <c r="M73" s="3" t="n">
@@ -4712,28 +4696,28 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Tanguy</t>
+          <t>Laine</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>Aimé</t>
+          <t>Théodore</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>381, rue de Lambert</t>
+          <t>9, rue Berthelot</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="3" t="inlineStr">
         <is>
-          <t>66509</t>
+          <t>70380</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>Grenier</t>
+          <t>Fouquetnec</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
@@ -4743,17 +4727,17 @@
       </c>
       <c r="J74" s="2" t="inlineStr">
         <is>
-          <t>audrey81@masse.com</t>
+          <t>georgesjules@mahe.org</t>
         </is>
       </c>
       <c r="K74" s="2" t="inlineStr">
         <is>
-          <t>0506973727</t>
+          <t>0808468511</t>
         </is>
       </c>
       <c r="L74" s="3" t="inlineStr">
         <is>
-          <t>0139380894</t>
+          <t>0140067632</t>
         </is>
       </c>
       <c r="M74" s="3" t="n">
@@ -4771,28 +4755,28 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Laurent</t>
+          <t>Hardy</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>Augustin</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>84, chemin de Arnaud</t>
+          <t>chemin Thibault</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="3" t="inlineStr">
         <is>
-          <t>71851</t>
+          <t>11280</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>Guichard</t>
+          <t>Saint Denis</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
@@ -4802,17 +4786,13 @@
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>kmaury@bonnin.fr</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="inlineStr">
-        <is>
-          <t>+33 1 27 44 63 31</t>
-        </is>
-      </c>
+          <t>kmunoz@bouygtel.fr</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)8 04 75 95 24</t>
+          <t>+33 5 70 44 65 55</t>
         </is>
       </c>
       <c r="M75" s="3" t="n">
@@ -4830,28 +4810,28 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Marechal</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>Yves</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>13, boulevard Noémi Renard</t>
+          <t>265, avenue Charlotte Munoz</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="3" t="inlineStr">
         <is>
-          <t>67040</t>
+          <t>43074</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>Rollanddan</t>
+          <t>Pichon-sur-Mer</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
@@ -4861,17 +4841,17 @@
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>roland98@wanadoo.fr</t>
+          <t>julien06@toussaint.fr</t>
         </is>
       </c>
       <c r="K76" s="3" t="inlineStr">
         <is>
-          <t>06 13 44 99 91</t>
+          <t>0476037200</t>
         </is>
       </c>
       <c r="L76" s="3" t="inlineStr">
         <is>
-          <t>+33 2 65 26 35 26</t>
+          <t>+33 (0)1 43 70 83 77</t>
         </is>
       </c>
       <c r="M76" s="3" t="n">
@@ -4889,28 +4869,28 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Valette</t>
+          <t>Mendes</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>Sébastien</t>
+          <t>Alain</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>296, avenue Perez</t>
+          <t>2, avenue Gonzalez</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t>47215</t>
+          <t>73586</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>Rocherboeuf</t>
+          <t>Leconte</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
@@ -4920,17 +4900,17 @@
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>blotsabine@tiscali.fr</t>
+          <t>jourdanrichard@vallet.fr</t>
         </is>
       </c>
       <c r="K77" s="2" t="inlineStr">
         <is>
-          <t>+33 (0)3 76 40 64 92</t>
+          <t>0255601445</t>
         </is>
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>06 40 58 88 38</t>
+          <t>+33 4 42 48 84 71</t>
         </is>
       </c>
       <c r="M77" s="3" t="n">
@@ -4948,28 +4928,28 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Brunet</t>
+          <t>Bouvier</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>Hugues</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>chemin Besnard</t>
+          <t>316, boulevard Laetitia Lambert</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="3" t="inlineStr">
         <is>
-          <t>68959</t>
+          <t>75993</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>Saint Christophe-les-Bains</t>
+          <t>Bonneau</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
@@ -4979,17 +4959,17 @@
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>augustindufour@jacob.com</t>
+          <t>sebastienmarie@club-internet.fr</t>
         </is>
       </c>
       <c r="K78" s="3" t="inlineStr">
         <is>
-          <t>0503536392</t>
+          <t>04 91 46 78 07</t>
         </is>
       </c>
       <c r="L78" s="3" t="inlineStr">
         <is>
-          <t>+33 3 75 50 22 85</t>
+          <t>+33 (0)8 02 92 03 61</t>
         </is>
       </c>
       <c r="M78" s="3" t="n">
@@ -5007,28 +4987,28 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Lopes</t>
+          <t>Tessier</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>Arthur</t>
+          <t>Xavier</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>18, rue Millet</t>
+          <t>380, rue Rodriguez</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t>46374</t>
+          <t>66357</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>Boucher</t>
+          <t>Boulayboeuf</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
@@ -5038,13 +5018,13 @@
       </c>
       <c r="J79" s="2" t="inlineStr">
         <is>
-          <t>briandelodie@millet.com</t>
+          <t>stephanehenry@bouygtel.fr</t>
         </is>
       </c>
       <c r="K79" s="3" t="inlineStr"/>
       <c r="L79" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)3 57 81 90 59</t>
+          <t>+33 (0)4 76 72 44 41</t>
         </is>
       </c>
       <c r="M79" s="3" t="n">
@@ -5062,28 +5042,28 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Roche</t>
+          <t>Gilles</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>Michel</t>
+          <t>Franck</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>9, rue Vaillant</t>
+          <t>490, boulevard Becker</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="3" t="inlineStr">
         <is>
-          <t>66333</t>
+          <t>70533</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>Pires</t>
+          <t>Saint Roland-la-Forêt</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
@@ -5093,17 +5073,13 @@
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>daisyperrier@clement.com</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="inlineStr">
-        <is>
-          <t>+33 4 49 90 71 67</t>
-        </is>
-      </c>
+          <t>troy@orange.fr</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="3" t="inlineStr">
         <is>
-          <t>+33 3 46 46 35 52</t>
+          <t>+33 1 74 65 69 01</t>
         </is>
       </c>
       <c r="M80" s="3" t="n">
@@ -5121,28 +5097,28 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Perrin</t>
+          <t>Colin</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>Marcel</t>
+          <t>Sébastien</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>9, rue de Rodrigues</t>
+          <t>60, avenue de Fleury</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="3" t="inlineStr">
         <is>
-          <t>83279</t>
+          <t>20772</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>Richardnec</t>
+          <t>Albertnec</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
@@ -5152,17 +5128,17 @@
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>diazmarie@bouygtel.fr</t>
+          <t>capucine06@gomez.fr</t>
         </is>
       </c>
       <c r="K81" s="3" t="inlineStr">
         <is>
-          <t>0574597335</t>
+          <t>0807254823</t>
         </is>
       </c>
       <c r="L81" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)3 27 69 13 27</t>
+          <t>+33 1 83 34 20 90</t>
         </is>
       </c>
       <c r="M81" s="3" t="n">
@@ -5180,28 +5156,28 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Techer</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>Guillaume</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>29, avenue Renault</t>
+          <t>2, rue Loiseau</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="3" t="inlineStr">
         <is>
-          <t>41752</t>
+          <t>86801</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>Saint Adélaïde-les-Bains</t>
+          <t>Maillot</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
@@ -5211,13 +5187,17 @@
       </c>
       <c r="J82" s="2" t="inlineStr">
         <is>
-          <t>costacaroline@live.com</t>
-        </is>
-      </c>
-      <c r="K82" s="3" t="inlineStr"/>
+          <t>patricia13@lemaire.org</t>
+        </is>
+      </c>
+      <c r="K82" s="3" t="inlineStr">
+        <is>
+          <t>+33 (0)3 47 13 50 36</t>
+        </is>
+      </c>
       <c r="L82" s="3" t="inlineStr">
         <is>
-          <t>03 33 15 70 16</t>
+          <t>0355939844</t>
         </is>
       </c>
       <c r="M82" s="3" t="n">
@@ -5235,28 +5215,28 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Leclerc</t>
+          <t>Colas</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Françoise</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>87, boulevard De Sousa</t>
+          <t>7, rue Jacquot</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="3" t="inlineStr">
         <is>
-          <t>20596</t>
+          <t>41357</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>Sainte René</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
@@ -5266,17 +5246,17 @@
       </c>
       <c r="J83" s="2" t="inlineStr">
         <is>
-          <t>yperrier@ollivier.org</t>
+          <t>clecoq@yahoo.fr</t>
         </is>
       </c>
       <c r="K83" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)5 38 11 15 71</t>
+          <t>05 55 47 74 50</t>
         </is>
       </c>
       <c r="L83" s="3" t="inlineStr">
         <is>
-          <t>0572734987</t>
+          <t>+33 (0)5 90 74 24 15</t>
         </is>
       </c>
       <c r="M83" s="3" t="n">
@@ -5294,28 +5274,28 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Didier</t>
+          <t>Descamps</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>5, boulevard de Girard</t>
+          <t>579, rue de Jacquot</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="3" t="inlineStr">
         <is>
-          <t>00242</t>
+          <t>03556</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>Pottier-sur-Le Gall</t>
+          <t>Simon</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
@@ -5325,17 +5305,17 @@
       </c>
       <c r="J84" s="2" t="inlineStr">
         <is>
-          <t>agnesjourdan@delahaye.com</t>
+          <t>dianedurand@pasquier.com</t>
         </is>
       </c>
       <c r="K84" s="2" t="inlineStr">
         <is>
-          <t>01 94 08 45 60</t>
+          <t>08 02 98 52 72</t>
         </is>
       </c>
       <c r="L84" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)1 16 86 31 75</t>
+          <t>0558580112</t>
         </is>
       </c>
       <c r="M84" s="3" t="n">
@@ -5353,28 +5333,28 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Pelletier</t>
+          <t>Simon</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Louis</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>86, rue Louis Hoarau</t>
+          <t>65, boulevard Frédéric Rolland</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="3" t="inlineStr">
         <is>
-          <t>46053</t>
+          <t>07039</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>Besson-sur-Besson</t>
+          <t>Saint Alfred</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
@@ -5384,17 +5364,17 @@
       </c>
       <c r="J85" s="2" t="inlineStr">
         <is>
-          <t>tjoly@bouygtel.fr</t>
+          <t>alphonse07@tiscali.fr</t>
         </is>
       </c>
       <c r="K85" s="2" t="inlineStr">
         <is>
-          <t>0372066618</t>
+          <t>0409006212</t>
         </is>
       </c>
       <c r="L85" s="3" t="inlineStr">
         <is>
-          <t>0619897325</t>
+          <t>+33 1 96 36 72 60</t>
         </is>
       </c>
       <c r="M85" s="3" t="n">
@@ -5412,28 +5392,28 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Riviere</t>
+          <t>Blot</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>54, boulevard de Pierre</t>
+          <t>rue de Rey</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="3" t="inlineStr">
         <is>
-          <t>83115</t>
+          <t>76231</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>GimenezVille</t>
+          <t>Maillot</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
@@ -5443,13 +5423,17 @@
       </c>
       <c r="J86" s="2" t="inlineStr">
         <is>
-          <t>michelle73@bonnet.com</t>
-        </is>
-      </c>
-      <c r="K86" s="3" t="inlineStr"/>
+          <t>martheollivier@ifrance.com</t>
+        </is>
+      </c>
+      <c r="K86" s="3" t="inlineStr">
+        <is>
+          <t>+33 (0)3 71 08 81 36</t>
+        </is>
+      </c>
       <c r="L86" s="3" t="inlineStr">
         <is>
-          <t>02 32 35 95 74</t>
+          <t>01 75 63 26 54</t>
         </is>
       </c>
       <c r="M86" s="3" t="n">
@@ -5467,28 +5451,28 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Faivre</t>
+          <t>Dias</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>Étienne</t>
+          <t>Arthur</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>70, avenue Vasseur</t>
+          <t>7, avenue Édith Vidal</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="3" t="inlineStr">
         <is>
-          <t>23053</t>
+          <t>56286</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>Lejeune</t>
+          <t>Sainte Anne-sur-Mer</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
@@ -5498,17 +5482,13 @@
       </c>
       <c r="J87" s="2" t="inlineStr">
         <is>
-          <t>penelope57@sfr.fr</t>
-        </is>
-      </c>
-      <c r="K87" s="3" t="inlineStr">
-        <is>
-          <t>+33 (0)5 55 89 52 50</t>
-        </is>
-      </c>
+          <t>remy40@gallet.fr</t>
+        </is>
+      </c>
+      <c r="K87" s="3" t="inlineStr"/>
       <c r="L87" s="3" t="inlineStr">
         <is>
-          <t>0151383760</t>
+          <t>+33 4 35 95 99 83</t>
         </is>
       </c>
       <c r="M87" s="3" t="n">
@@ -5526,28 +5506,28 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Pons</t>
+          <t>Sauvage</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>875, rue Bonnin</t>
+          <t>71, boulevard de Roussel</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="3" t="inlineStr">
         <is>
-          <t>34225</t>
+          <t>99132</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>Lerouxboeuf</t>
+          <t>Allain-sur-Colin</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
@@ -5557,13 +5537,17 @@
       </c>
       <c r="J88" s="2" t="inlineStr">
         <is>
-          <t>chantal44@laroche.com</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="inlineStr"/>
+          <t>xlombard@merle.fr</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="inlineStr">
+        <is>
+          <t>+33 5 71 58 24 69</t>
+        </is>
+      </c>
       <c r="L88" s="3" t="inlineStr">
         <is>
-          <t>0237866837</t>
+          <t>04 42 65 93 06</t>
         </is>
       </c>
       <c r="M88" s="3" t="n">
@@ -5581,28 +5565,28 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Imbert</t>
+          <t>Laurent</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>Frédéric</t>
+          <t>Franck</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>69, rue de Gautier</t>
+          <t>457, chemin Henriette Delmas</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="3" t="inlineStr">
         <is>
-          <t>81790</t>
+          <t>45284</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>Pierre-les-Bains</t>
+          <t>Saint Constance</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
@@ -5612,17 +5596,17 @@
       </c>
       <c r="J89" s="2" t="inlineStr">
         <is>
-          <t>laurentaudrey@bouygtel.fr</t>
+          <t>genevieveguillaume@bonnin.net</t>
         </is>
       </c>
       <c r="K89" s="3" t="inlineStr">
         <is>
-          <t>+33 3 69 77 58 78</t>
+          <t>+33 8 06 71 45 32</t>
         </is>
       </c>
       <c r="L89" s="3" t="inlineStr">
         <is>
-          <t>0167089947</t>
+          <t>+33 (0)1 94 59 53 77</t>
         </is>
       </c>
       <c r="M89" s="3" t="n">
@@ -5640,28 +5624,28 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Aubert</t>
+          <t>Baudry</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Théophile</t>
+          <t>Honoré</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>187, rue Frédérique Gonzalez</t>
+          <t>723, rue Duval</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t>69274</t>
+          <t>23670</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>Sainte Théophile</t>
+          <t>Garnier</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
@@ -5671,17 +5655,13 @@
       </c>
       <c r="J90" s="2" t="inlineStr">
         <is>
-          <t>qbertin@tele2.fr</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="inlineStr">
-        <is>
-          <t>+33 (0)3 04 12 47 81</t>
-        </is>
-      </c>
+          <t>baillydaisy@jacob.org</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="3" t="inlineStr">
         <is>
-          <t>+33 1 73 78 32 59</t>
+          <t>+33 8 06 21 03 90</t>
         </is>
       </c>
       <c r="M90" s="3" t="n">
@@ -5699,28 +5679,28 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Labbe</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>Eugène</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>93, rue de Richard</t>
+          <t>77, avenue de Thierry</t>
         </is>
       </c>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="3" t="inlineStr">
         <is>
-          <t>78402</t>
+          <t>70546</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>ToussaintVille</t>
+          <t>Boulanger</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
@@ -5730,13 +5710,17 @@
       </c>
       <c r="J91" s="2" t="inlineStr">
         <is>
-          <t>hamonvalentine@herve.fr</t>
-        </is>
-      </c>
-      <c r="K91" s="3" t="inlineStr"/>
+          <t>mcharrier@yahoo.fr</t>
+        </is>
+      </c>
+      <c r="K91" s="3" t="inlineStr">
+        <is>
+          <t>+33 (0)6 92 23 04 82</t>
+        </is>
+      </c>
       <c r="L91" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)6 23 57 28 28</t>
+          <t>02 66 51 12 80</t>
         </is>
       </c>
       <c r="M91" s="3" t="n">
@@ -5754,28 +5738,28 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Leveque</t>
+          <t>Lombard</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Thibaut</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>81, rue Normand</t>
+          <t>294, rue Brunel</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="3" t="inlineStr">
         <is>
-          <t>95216</t>
+          <t>96477</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>Bernier-sur-Gerard</t>
+          <t>Ribeiro</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
@@ -5785,17 +5769,17 @@
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>cecilesamson@imbert.com</t>
+          <t>cordierguy@bouygtel.fr</t>
         </is>
       </c>
       <c r="K92" s="3" t="inlineStr">
         <is>
-          <t>0347791199</t>
+          <t>01 18 82 28 54</t>
         </is>
       </c>
       <c r="L92" s="3" t="inlineStr">
         <is>
-          <t>0153436534</t>
+          <t>+33 (0)5 63 23 00 66</t>
         </is>
       </c>
       <c r="M92" s="3" t="n">
@@ -5813,28 +5797,28 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Gallet</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>Bernard</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>61, rue Moulin</t>
+          <t>rue Georges Thibault</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="3" t="inlineStr">
         <is>
-          <t>90027</t>
+          <t>52038</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>Sainte Caroline</t>
+          <t>Sainte Margaux-sur-Mer</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
@@ -5844,17 +5828,13 @@
       </c>
       <c r="J93" s="2" t="inlineStr">
         <is>
-          <t>reynaudnathalie@free.fr</t>
-        </is>
-      </c>
-      <c r="K93" s="3" t="inlineStr">
-        <is>
-          <t>+33 1 70 83 95 03</t>
-        </is>
-      </c>
+          <t>claudedias@poulain.net</t>
+        </is>
+      </c>
+      <c r="K93" s="3" t="inlineStr"/>
       <c r="L93" s="3" t="inlineStr">
         <is>
-          <t>05 39 27 78 38</t>
+          <t>0518586061</t>
         </is>
       </c>
       <c r="M93" s="3" t="n">
@@ -5872,28 +5852,28 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>Millet</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>Roger</t>
+          <t>Jules</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>boulevard de Leconte</t>
+          <t>563, rue de Pereira</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="3" t="inlineStr">
         <is>
-          <t>78387</t>
+          <t>17024</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>Lamyboeuf</t>
+          <t>Saint Lucnec</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
@@ -5903,13 +5883,13 @@
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>victoire35@free.fr</t>
+          <t>victoireguyot@bailly.fr</t>
         </is>
       </c>
       <c r="K94" s="3" t="inlineStr"/>
       <c r="L94" s="3" t="inlineStr">
         <is>
-          <t>+33 6 10 84 27 11</t>
+          <t>01 73 63 39 90</t>
         </is>
       </c>
       <c r="M94" s="3" t="n">
@@ -5927,28 +5907,28 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Picard</t>
+          <t>Moreau</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Théodore</t>
+          <t>Christophe</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>7, rue Jacquot</t>
+          <t>5, boulevard Louise Humbert</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="3" t="inlineStr">
         <is>
-          <t>91522</t>
+          <t>42305</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>Poulain</t>
+          <t>Saint Hortenseboeuf</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
@@ -5958,17 +5938,17 @@
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>cousinantoine@sfr.fr</t>
+          <t>charlesrenaud@collet.fr</t>
         </is>
       </c>
       <c r="K95" s="2" t="inlineStr">
         <is>
-          <t>+33 6 54 59 24 34</t>
+          <t>+33 (0)6 60 70 37 51</t>
         </is>
       </c>
       <c r="L95" s="3" t="inlineStr">
         <is>
-          <t>+33 3 76 85 72 08</t>
+          <t>+33 1 90 82 79 30</t>
         </is>
       </c>
       <c r="M95" s="3" t="n">
@@ -5986,28 +5966,28 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Gros</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>René</t>
+          <t>Isaac</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>rue de Aubert</t>
+          <t>79, boulevard Margaux Giraud</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="3" t="inlineStr">
         <is>
-          <t>75640</t>
+          <t>34671</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>Brun</t>
+          <t>Sainte Édith</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
@@ -6017,17 +5997,17 @@
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>vaillanthortense@dbmail.com</t>
+          <t>wberger@gillet.net</t>
         </is>
       </c>
       <c r="K96" s="3" t="inlineStr">
         <is>
-          <t>04 80 92 84 24</t>
+          <t>0301222521</t>
         </is>
       </c>
       <c r="L96" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)1 26 98 41 14</t>
+          <t>0515132639</t>
         </is>
       </c>
       <c r="M96" s="3" t="n">
@@ -6045,28 +6025,28 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Vaillant</t>
+          <t>Laroche</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>Christiane</t>
+          <t>Constance</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>9, boulevard de Wagner</t>
+          <t>53, boulevard de Lecoq</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="3" t="inlineStr">
         <is>
-          <t>44285</t>
+          <t>65853</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>Diaz</t>
+          <t>Cordiernec</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
@@ -6076,13 +6056,17 @@
       </c>
       <c r="J97" s="2" t="inlineStr">
         <is>
-          <t>hoarauaimee@carlier.com</t>
-        </is>
-      </c>
-      <c r="K97" s="3" t="inlineStr"/>
+          <t>bde-sousa@techer.org</t>
+        </is>
+      </c>
+      <c r="K97" s="3" t="inlineStr">
+        <is>
+          <t>+33 2 97 91 49 04</t>
+        </is>
+      </c>
       <c r="L97" s="3" t="inlineStr">
         <is>
-          <t>02 69 31 61 46</t>
+          <t>+33 (0)5 55 40 00 56</t>
         </is>
       </c>
       <c r="M97" s="3" t="n">
@@ -6100,28 +6084,28 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Barbier</t>
+          <t>Carpentier</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>Gilles</t>
+          <t>Édouard</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>956, avenue Nicolas Prevost</t>
+          <t>55, chemin de Marty</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="3" t="inlineStr">
         <is>
-          <t>15858</t>
+          <t>91993</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>Saint Andrée</t>
+          <t>Sainte Valentine-les-Bains</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
@@ -6131,13 +6115,13 @@
       </c>
       <c r="J98" s="2" t="inlineStr">
         <is>
-          <t>leclercqmaggie@vidal.com</t>
+          <t>fontainedenis@cousin.com</t>
         </is>
       </c>
       <c r="K98" s="3" t="inlineStr"/>
       <c r="L98" s="3" t="inlineStr">
         <is>
-          <t>0805449482</t>
+          <t>+33 4 74 65 65 34</t>
         </is>
       </c>
       <c r="M98" s="3" t="n">
@@ -6155,28 +6139,28 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Remy</t>
+          <t>Bouvier</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Alphonse</t>
+          <t>Philippe</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>2, boulevard Lemaitre</t>
+          <t>70, rue Guillaume</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t>56401</t>
+          <t>86552</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>Francois</t>
+          <t>Delmasnec</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
@@ -6186,17 +6170,17 @@
       </c>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>hcousin@boulay.fr</t>
+          <t>marechalsuzanne@coulon.com</t>
         </is>
       </c>
       <c r="K99" s="2" t="inlineStr">
         <is>
-          <t>+33 4 95 71 95 91</t>
+          <t>+33 (0)8 07 43 76 61</t>
         </is>
       </c>
       <c r="L99" s="3" t="inlineStr">
         <is>
-          <t>0802527380</t>
+          <t>0806447280</t>
         </is>
       </c>
       <c r="M99" s="3" t="n">
@@ -6214,28 +6198,28 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>Benard</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>257, rue de Courtois</t>
+          <t>7, rue de Leblanc</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="3" t="inlineStr">
         <is>
-          <t>05042</t>
+          <t>09129</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>HubertBourg</t>
+          <t>Sainte Lorraineboeuf</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
@@ -6245,17 +6229,13 @@
       </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>guilloupatricia@garcia.fr</t>
-        </is>
-      </c>
-      <c r="K100" s="3" t="inlineStr">
-        <is>
-          <t>+33 2 43 13 45 25</t>
-        </is>
-      </c>
+          <t>pgros@bertrand.fr</t>
+        </is>
+      </c>
+      <c r="K100" s="3" t="inlineStr"/>
       <c r="L100" s="3" t="inlineStr">
         <is>
-          <t>01 88 72 60 00</t>
+          <t>+33 4 24 43 20 04</t>
         </is>
       </c>
       <c r="M100" s="3" t="n">
@@ -6273,28 +6253,28 @@
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Lemoine</t>
+          <t>Blanchard</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Sophie</t>
+          <t>Célina</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>94, chemin Gérard Riviere</t>
+          <t>735, rue de Nicolas</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="3" t="inlineStr">
         <is>
-          <t>72697</t>
+          <t>01466</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>Hardy</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
@@ -6304,17 +6284,17 @@
       </c>
       <c r="J101" s="2" t="inlineStr">
         <is>
-          <t>christiane16@hotmail.fr</t>
+          <t>lucymasson@gmail.com</t>
         </is>
       </c>
       <c r="K101" s="3" t="inlineStr">
         <is>
-          <t>+33 6 30 33 88 68</t>
+          <t>+33 4 35 35 00 87</t>
         </is>
       </c>
       <c r="L101" s="3" t="inlineStr">
         <is>
-          <t>0248308411</t>
+          <t>03 72 12 09 35</t>
         </is>
       </c>
       <c r="M101" s="3" t="n">
@@ -6332,28 +6312,28 @@
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Leclercq</t>
+          <t>Jourdan</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>François</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>9, avenue Monique Fernandez</t>
+          <t>62, avenue Raymond Antoine</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="3" t="inlineStr">
         <is>
-          <t>96988</t>
+          <t>55117</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>Renard</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
@@ -6363,17 +6343,17 @@
       </c>
       <c r="J102" s="2" t="inlineStr">
         <is>
-          <t>celina94@noos.fr</t>
+          <t>bonneaujerome@hotmail.fr</t>
         </is>
       </c>
       <c r="K102" s="3" t="inlineStr">
         <is>
-          <t>0182728758</t>
+          <t>+33 (0)5 88 89 84 44</t>
         </is>
       </c>
       <c r="L102" s="3" t="inlineStr">
         <is>
-          <t>+33 1 25 43 84 38</t>
+          <t>05 49 59 75 21</t>
         </is>
       </c>
       <c r="M102" s="3" t="n">
@@ -6391,28 +6371,28 @@
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Mendes</t>
+          <t>Pelletier</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Gérard</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>54, avenue de Hoareau</t>
+          <t>60, rue Martin Morvan</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="3" t="inlineStr">
         <is>
-          <t>49738</t>
+          <t>29207</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>Sainte AndréVille</t>
+          <t>Sainte SusanneBourg</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
@@ -6422,17 +6402,17 @@
       </c>
       <c r="J103" s="2" t="inlineStr">
         <is>
-          <t>audrey78@legros.net</t>
+          <t>robert69@schneider.org</t>
         </is>
       </c>
       <c r="K103" s="3" t="inlineStr">
         <is>
-          <t>+33 2 31 99 73 25</t>
+          <t>+33 1 76 16 36 57</t>
         </is>
       </c>
       <c r="L103" s="3" t="inlineStr">
         <is>
-          <t>+33 1 28 30 91 07</t>
+          <t>+33 3 15 83 15 84</t>
         </is>
       </c>
       <c r="M103" s="3" t="n">
@@ -6450,28 +6430,28 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>Berger</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Jérôme</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>90, avenue Océane Roux</t>
+          <t>53, chemin de Lecomte</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="3" t="inlineStr">
         <is>
-          <t>38682</t>
+          <t>02081</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>Dumont</t>
+          <t>Sainte Charles</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -6481,13 +6461,13 @@
       </c>
       <c r="J104" s="2" t="inlineStr">
         <is>
-          <t>ferrandmargaud@leduc.net</t>
+          <t>robert34@laposte.net</t>
         </is>
       </c>
       <c r="K104" s="3" t="inlineStr"/>
       <c r="L104" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)1 30 34 53 43</t>
+          <t>01 72 82 09 17</t>
         </is>
       </c>
       <c r="M104" s="3" t="n">
@@ -6505,28 +6485,28 @@
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Bourgeois</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>rue Joseph Loiseau</t>
+          <t>5, avenue Becker</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="3" t="inlineStr">
         <is>
-          <t>48537</t>
+          <t>81358</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>De Oliveiranec</t>
+          <t>Raynaudboeuf</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
@@ -6536,17 +6516,13 @@
       </c>
       <c r="J105" s="2" t="inlineStr">
         <is>
-          <t>antoinettejoseph@live.com</t>
-        </is>
-      </c>
-      <c r="K105" s="3" t="inlineStr">
-        <is>
-          <t>0546293097</t>
-        </is>
-      </c>
+          <t>francois37@richard.com</t>
+        </is>
+      </c>
+      <c r="K105" s="3" t="inlineStr"/>
       <c r="L105" s="3" t="inlineStr">
         <is>
-          <t>0568050721</t>
+          <t>01 09 36 87 19</t>
         </is>
       </c>
       <c r="M105" s="3" t="n">
@@ -6564,28 +6540,28 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Dos Santos</t>
+          <t>Schmitt</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Timothée</t>
+          <t>Laurent</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>477, rue Nath Dupre</t>
+          <t>8, rue de Delahaye</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="3" t="inlineStr">
         <is>
-          <t>84091</t>
+          <t>78826</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>Saint Margaux</t>
+          <t>Giraud</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
@@ -6595,17 +6571,13 @@
       </c>
       <c r="J106" s="2" t="inlineStr">
         <is>
-          <t>kleveque@orange.fr</t>
-        </is>
-      </c>
-      <c r="K106" s="3" t="inlineStr">
-        <is>
-          <t>+33 8 01 72 88 64</t>
-        </is>
-      </c>
+          <t>delaunayhelene@voila.fr</t>
+        </is>
+      </c>
+      <c r="K106" s="3" t="inlineStr"/>
       <c r="L106" s="3" t="inlineStr">
         <is>
-          <t>+33 6 17 99 29 47</t>
+          <t>+33 1 41 86 65 29</t>
         </is>
       </c>
       <c r="M106" s="3" t="n">
@@ -6623,28 +6595,28 @@
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Boulay</t>
+          <t>Meyer</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Jules</t>
+          <t>Grégoire</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>66, rue de Pinto</t>
+          <t>118, avenue de Renard</t>
         </is>
       </c>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="3" t="inlineStr">
         <is>
-          <t>14492</t>
+          <t>56688</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>Sainte Timothée-les-Bains</t>
+          <t>Saint Bernard</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
@@ -6654,17 +6626,17 @@
       </c>
       <c r="J107" s="2" t="inlineStr">
         <is>
-          <t>leblancvictor@lelievre.fr</t>
+          <t>fvalentin@dbmail.com</t>
         </is>
       </c>
       <c r="K107" s="3" t="inlineStr">
         <is>
-          <t>+33 8 05 19 24 30</t>
+          <t>+33 (0)8 04 22 89 53</t>
         </is>
       </c>
       <c r="L107" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)5 74 48 43 64</t>
+          <t>0156467925</t>
         </is>
       </c>
       <c r="M107" s="3" t="n">
@@ -6682,28 +6654,28 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Salmon</t>
+          <t>Albert</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Éric</t>
+          <t>Eugène</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>236, rue de Perez</t>
+          <t>1, chemin Célina Gay</t>
         </is>
       </c>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="3" t="inlineStr">
         <is>
-          <t>57811</t>
+          <t>01483</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>Delahaye-les-Bains</t>
+          <t>Bernier</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
@@ -6713,17 +6685,17 @@
       </c>
       <c r="J108" s="2" t="inlineStr">
         <is>
-          <t>chauvetfranck@hotmail.fr</t>
+          <t>lopespatricia@letellier.fr</t>
         </is>
       </c>
       <c r="K108" s="2" t="inlineStr">
         <is>
-          <t>+33 5 77 06 85 35</t>
+          <t>+33 3 57 11 05 67</t>
         </is>
       </c>
       <c r="L108" s="3" t="inlineStr">
         <is>
-          <t>+33 1 13 55 31 65</t>
+          <t>+33 6 00 05 25 35</t>
         </is>
       </c>
       <c r="M108" s="3" t="n">
@@ -6741,28 +6713,28 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Remy</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>3, rue Benjamin Descamps</t>
+          <t>7, chemin Sylvie Pierre</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="3" t="inlineStr">
         <is>
-          <t>32261</t>
+          <t>51176</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>Saint Benoît</t>
+          <t>Paul-sur-Mer</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
@@ -6772,17 +6744,17 @@
       </c>
       <c r="J109" s="2" t="inlineStr">
         <is>
-          <t>cohenaugustin@noos.fr</t>
+          <t>bousquetjuliette@rolland.net</t>
         </is>
       </c>
       <c r="K109" s="2" t="inlineStr">
         <is>
-          <t>06 41 74 62 74</t>
+          <t>0352783271</t>
         </is>
       </c>
       <c r="L109" s="3" t="inlineStr">
         <is>
-          <t>+33 8 07 73 97 86</t>
+          <t>08 09 52 31 46</t>
         </is>
       </c>
       <c r="M109" s="3" t="n">
@@ -6800,28 +6772,28 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Payet</t>
+          <t>Rodrigues</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Alfred</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>85, rue Capucine Berthelot</t>
+          <t>84, rue Stéphane Giraud</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="3" t="inlineStr">
         <is>
-          <t>00123</t>
+          <t>24512</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>Saint Agnès</t>
+          <t>Robin-la-Forêt</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
@@ -6831,17 +6803,17 @@
       </c>
       <c r="J110" s="2" t="inlineStr">
         <is>
-          <t>pagesmargaud@free.fr</t>
+          <t>augermargot@chretien.com</t>
         </is>
       </c>
       <c r="K110" s="2" t="inlineStr">
         <is>
-          <t>03 04 82 64 13</t>
+          <t>0155092758</t>
         </is>
       </c>
       <c r="L110" s="3" t="inlineStr">
         <is>
-          <t>0524430987</t>
+          <t>+33 (0)5 41 16 30 00</t>
         </is>
       </c>
       <c r="M110" s="3" t="n">
@@ -6859,28 +6831,28 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Andre</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Henri</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>91, rue Patrick Reynaud</t>
+          <t>40, avenue Éric Marie</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="3" t="inlineStr">
         <is>
-          <t>79171</t>
+          <t>34584</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>PerrierBourg</t>
+          <t>Poulain-sur-Vallee</t>
         </is>
       </c>
       <c r="I111" s="2" t="inlineStr">
@@ -6890,17 +6862,17 @@
       </c>
       <c r="J111" s="2" t="inlineStr">
         <is>
-          <t>nicole43@delahaye.fr</t>
+          <t>alphonse56@dbmail.com</t>
         </is>
       </c>
       <c r="K111" s="3" t="inlineStr">
         <is>
-          <t>+33 6 02 52 27 90</t>
+          <t>01 92 33 04 34</t>
         </is>
       </c>
       <c r="L111" s="3" t="inlineStr">
         <is>
-          <t>+33 2 47 79 24 30</t>
+          <t>04 26 29 79 48</t>
         </is>
       </c>
       <c r="M111" s="3" t="n">
@@ -6918,28 +6890,28 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Becker</t>
+          <t>Bouvet</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>319, avenue de Descamps</t>
+          <t>145, boulevard de Mahe</t>
         </is>
       </c>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="3" t="inlineStr">
         <is>
-          <t>65182</t>
+          <t>24694</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>Guerin</t>
+          <t>Bertin</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
@@ -6949,17 +6921,17 @@
       </c>
       <c r="J112" s="2" t="inlineStr">
         <is>
-          <t>aurelie21@gilbert.fr</t>
+          <t>thibaut36@yahoo.fr</t>
         </is>
       </c>
       <c r="K112" s="3" t="inlineStr">
         <is>
-          <t>08 01 96 65 90</t>
+          <t>+33 (0)1 46 49 02 60</t>
         </is>
       </c>
       <c r="L112" s="3" t="inlineStr">
         <is>
-          <t>0273924193</t>
+          <t>+33 (0)2 74 47 16 71</t>
         </is>
       </c>
       <c r="M112" s="3" t="n">
@@ -6977,28 +6949,28 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Thibault</t>
+          <t>Lenoir</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>Théophile</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>91, rue de Dijoux</t>
+          <t>avenue de Leconte</t>
         </is>
       </c>
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="3" t="inlineStr">
         <is>
-          <t>94994</t>
+          <t>78064</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>Grosdan</t>
+          <t>Guyotdan</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
@@ -7008,17 +6980,13 @@
       </c>
       <c r="J113" s="2" t="inlineStr">
         <is>
-          <t>isaacrossi@laposte.net</t>
-        </is>
-      </c>
-      <c r="K113" s="3" t="inlineStr">
-        <is>
-          <t>+33 (0)4 77 78 23 36</t>
-        </is>
-      </c>
+          <t>perrinvictor@tiscali.fr</t>
+        </is>
+      </c>
+      <c r="K113" s="3" t="inlineStr"/>
       <c r="L113" s="3" t="inlineStr">
         <is>
-          <t>03 72 50 58 97</t>
+          <t>06 80 07 66 67</t>
         </is>
       </c>
       <c r="M113" s="3" t="n">
@@ -7036,28 +7004,28 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>Fernandes</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>Timothée</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>avenue Gimenez</t>
+          <t>71, avenue de Costa</t>
         </is>
       </c>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="3" t="inlineStr">
         <is>
-          <t>99279</t>
+          <t>57053</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>Normand-sur-Pires</t>
+          <t>Normand</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
@@ -7067,13 +7035,13 @@
       </c>
       <c r="J114" s="2" t="inlineStr">
         <is>
-          <t>georges40@orange.fr</t>
+          <t>srenard@rousseau.com</t>
         </is>
       </c>
       <c r="K114" s="3" t="inlineStr"/>
       <c r="L114" s="3" t="inlineStr">
         <is>
-          <t>+33 3 03 39 70 74</t>
+          <t>0514846193</t>
         </is>
       </c>
       <c r="M114" s="3" t="n">
@@ -7091,28 +7059,28 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Blondel</t>
+          <t>Gonzalez</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>Étienne</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>66, avenue de Chretien</t>
+          <t>chemin Merle</t>
         </is>
       </c>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="3" t="inlineStr">
         <is>
-          <t>77901</t>
+          <t>06018</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>Brunet</t>
+          <t>Sainte Laetitianec</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
@@ -7122,13 +7090,17 @@
       </c>
       <c r="J115" s="2" t="inlineStr">
         <is>
-          <t>michellegomez@rossi.net</t>
-        </is>
-      </c>
-      <c r="K115" s="3" t="inlineStr"/>
+          <t>vbousquet@monnier.fr</t>
+        </is>
+      </c>
+      <c r="K115" s="3" t="inlineStr">
+        <is>
+          <t>+33 5 58 27 06 93</t>
+        </is>
+      </c>
       <c r="L115" s="3" t="inlineStr">
         <is>
-          <t>03 48 29 79 05</t>
+          <t>06 40 18 79 03</t>
         </is>
       </c>
       <c r="M115" s="3" t="n">
@@ -7146,28 +7118,28 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Royer</t>
+          <t>Sauvage</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Laurent</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>21, rue de Bertrand</t>
+          <t>52, avenue de Hamon</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="3" t="inlineStr">
         <is>
-          <t>90677</t>
+          <t>89751</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>Begue</t>
+          <t>Masse</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
@@ -7177,17 +7149,17 @@
       </c>
       <c r="J116" s="2" t="inlineStr">
         <is>
-          <t>wgoncalves@dos.com</t>
+          <t>danielle60@sfr.fr</t>
         </is>
       </c>
       <c r="K116" s="3" t="inlineStr">
         <is>
-          <t>08 03 02 37 24</t>
+          <t>+33 (0)1 11 77 69 14</t>
         </is>
       </c>
       <c r="L116" s="3" t="inlineStr">
         <is>
-          <t>0695859001</t>
+          <t>+33 (0)4 95 22 40 60</t>
         </is>
       </c>
       <c r="M116" s="3" t="n">
@@ -7205,28 +7177,28 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Giraud</t>
+          <t>Simon</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>Bernard</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>919, chemin de Becker</t>
+          <t>35, chemin de Marchal</t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="3" t="inlineStr">
         <is>
-          <t>02982</t>
+          <t>13353</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>Sainte HonoréBourg</t>
+          <t>Saint Luc</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
@@ -7236,17 +7208,17 @@
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>odettegonzalez@orange.fr</t>
+          <t>cgiraud@duhamel.fr</t>
         </is>
       </c>
       <c r="K117" s="2" t="inlineStr">
         <is>
-          <t>+33 4 48 80 50 68</t>
+          <t>+33 6 78 72 09 55</t>
         </is>
       </c>
       <c r="L117" s="3" t="inlineStr">
         <is>
-          <t>0803008545</t>
+          <t>08 04 73 23 89</t>
         </is>
       </c>
       <c r="M117" s="3" t="n">
@@ -7264,28 +7236,28 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Barbe</t>
+          <t>Chretien</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Laurent</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>5, chemin Gaillard</t>
+          <t>43, chemin Martine Guillot</t>
         </is>
       </c>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="3" t="inlineStr">
         <is>
-          <t>11453</t>
+          <t>33852</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>Lopez-sur-Peron</t>
+          <t>Carlierboeuf</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
@@ -7295,13 +7267,13 @@
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>denis40@free.fr</t>
+          <t>philippebertrand@tiscali.fr</t>
         </is>
       </c>
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="3" t="inlineStr">
         <is>
-          <t>01 74 95 60 89</t>
+          <t>0370385979</t>
         </is>
       </c>
       <c r="M118" s="3" t="n">
@@ -7319,28 +7291,28 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Moreau</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>Alfred</t>
+          <t>Honoré</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>chemin de Diaz</t>
+          <t>963, rue Martinez</t>
         </is>
       </c>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="3" t="inlineStr">
         <is>
-          <t>01647</t>
+          <t>35227</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
         <is>
-          <t>RogerVille</t>
+          <t>Bourdonboeuf</t>
         </is>
       </c>
       <c r="I119" s="2" t="inlineStr">
@@ -7350,17 +7322,13 @@
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>isabelleclerc@laposte.net</t>
-        </is>
-      </c>
-      <c r="K119" s="3" t="inlineStr">
-        <is>
-          <t>04 43 93 45 83</t>
-        </is>
-      </c>
+          <t>marcelnoel@voila.fr</t>
+        </is>
+      </c>
+      <c r="K119" s="3" t="inlineStr"/>
       <c r="L119" s="3" t="inlineStr">
         <is>
-          <t>+33 5 00 10 49 37</t>
+          <t>08 00 38 34 00</t>
         </is>
       </c>
       <c r="M119" s="3" t="n">
@@ -7378,28 +7346,28 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Prevost</t>
+          <t>Pages</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>Théodore</t>
+          <t>Christophe</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>98, rue de Chauvin</t>
+          <t>772, avenue Lambert</t>
         </is>
       </c>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="3" t="inlineStr">
         <is>
-          <t>76279</t>
+          <t>38695</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>Peron-sur-Thibault</t>
+          <t>Sainte Aurélie-la-Forêt</t>
         </is>
       </c>
       <c r="I120" s="2" t="inlineStr">
@@ -7409,13 +7377,17 @@
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>bertinjacques@wanadoo.fr</t>
-        </is>
-      </c>
-      <c r="K120" s="3" t="inlineStr"/>
+          <t>hmahe@lebon.fr</t>
+        </is>
+      </c>
+      <c r="K120" s="3" t="inlineStr">
+        <is>
+          <t>+33 (0)3 38 11 20 20</t>
+        </is>
+      </c>
       <c r="L120" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)1 37 89 70 34</t>
+          <t>0258526414</t>
         </is>
       </c>
       <c r="M120" s="3" t="n">
@@ -7433,28 +7405,28 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Mace</t>
+          <t>Legrand</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>Constance</t>
+          <t>Anastasie</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>avenue Vallee</t>
+          <t>2, boulevard Francois</t>
         </is>
       </c>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="3" t="inlineStr">
         <is>
-          <t>34515</t>
+          <t>43690</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>Gilbert</t>
+          <t>Schmitt</t>
         </is>
       </c>
       <c r="I121" s="2" t="inlineStr">
@@ -7464,13 +7436,17 @@
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>kbourdon@dbmail.com</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="inlineStr"/>
+          <t>ledouxlouis@fouquet.fr</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="inlineStr">
+        <is>
+          <t>08 01 13 70 04</t>
+        </is>
+      </c>
       <c r="L121" s="3" t="inlineStr">
         <is>
-          <t>+33 1 91 08 17 94</t>
+          <t>+33 (0)1 70 68 30 77</t>
         </is>
       </c>
       <c r="M121" s="3" t="n">
@@ -7488,28 +7464,28 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Garnier</t>
+          <t>Lacombe</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>Thierry</t>
+          <t>Rémy</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>rue Inès Maillet</t>
+          <t>447, boulevard Élodie Pires</t>
         </is>
       </c>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="3" t="inlineStr">
         <is>
-          <t>94034</t>
+          <t>01329</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>Saint Suzannedan</t>
+          <t>Mallet</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
@@ -7519,17 +7495,13 @@
       </c>
       <c r="J122" s="2" t="inlineStr">
         <is>
-          <t>sebastienriviere@yahoo.fr</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="inlineStr">
-        <is>
-          <t>+33 (0)5 38 19 48 21</t>
-        </is>
-      </c>
+          <t>victorlemaitre@free.fr</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="3" t="inlineStr">
         <is>
-          <t>0443045949</t>
+          <t>+33 (0)5 91 70 71 85</t>
         </is>
       </c>
       <c r="M122" s="3" t="n">
@@ -7547,28 +7519,28 @@
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Gallet</t>
+          <t>Langlois</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>Auguste</t>
+          <t>Hugues</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>27, rue daisy Carre</t>
+          <t>66, chemin Valérie Mahe</t>
         </is>
       </c>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="3" t="inlineStr">
         <is>
-          <t>66676</t>
+          <t>62190</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>Pottiernec</t>
+          <t>Roussetdan</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
@@ -7578,17 +7550,13 @@
       </c>
       <c r="J123" s="2" t="inlineStr">
         <is>
-          <t>pdaniel@hotmail.fr</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="inlineStr">
-        <is>
-          <t>+33 4 50 30 42 97</t>
-        </is>
-      </c>
+          <t>fdelannoy@gmail.com</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)8 01 45 71 03</t>
+          <t>03 86 64 20 93</t>
         </is>
       </c>
       <c r="M123" s="3" t="n">
@@ -7606,28 +7574,28 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Remy</t>
+          <t>Boyer</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>Maurice</t>
+          <t>Frédéric</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>85, chemin Charlotte Berthelot</t>
+          <t>524, avenue Jeannine Lagarde</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="3" t="inlineStr">
         <is>
-          <t>45660</t>
+          <t>19577</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>RobertBourg</t>
+          <t>Sainte Benoîtboeuf</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
@@ -7637,17 +7605,17 @@
       </c>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>alexandrieguillaume@marechal.org</t>
+          <t>launayhenriette@imbert.org</t>
         </is>
       </c>
       <c r="K124" s="3" t="inlineStr">
         <is>
-          <t>0123145240</t>
+          <t>+33 6 14 21 49 25</t>
         </is>
       </c>
       <c r="L124" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)1 22 13 71 63</t>
+          <t>0332420247</t>
         </is>
       </c>
       <c r="M124" s="3" t="n">
@@ -7665,28 +7633,28 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>Gay</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>Arthur</t>
+          <t>Hugues</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>12, avenue Texier</t>
+          <t>72, avenue Rolland</t>
         </is>
       </c>
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="3" t="inlineStr">
         <is>
-          <t>18021</t>
+          <t>58284</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>Sainte Alexandrie-la-Forêt</t>
+          <t>Perrot</t>
         </is>
       </c>
       <c r="I125" s="2" t="inlineStr">
@@ -7696,13 +7664,13 @@
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>ivaillant@francois.org</t>
+          <t>maurice61@voila.fr</t>
         </is>
       </c>
       <c r="K125" s="3" t="inlineStr"/>
       <c r="L125" s="3" t="inlineStr">
         <is>
-          <t>01 65 59 69 65</t>
+          <t>+33 1 47 30 90 87</t>
         </is>
       </c>
       <c r="M125" s="3" t="n">
@@ -7720,28 +7688,28 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Poirier</t>
+          <t>Renaud</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>Thibaut</t>
+          <t>Philippe</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>81, avenue Petit</t>
+          <t>249, avenue Clémence Hebert</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="3" t="inlineStr">
         <is>
-          <t>41542</t>
+          <t>06217</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>Costaboeuf</t>
+          <t>Sainte Bernard-les-Bains</t>
         </is>
       </c>
       <c r="I126" s="2" t="inlineStr">
@@ -7751,17 +7719,17 @@
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>agathe08@gimenez.com</t>
+          <t>fmerle@wanadoo.fr</t>
         </is>
       </c>
       <c r="K126" s="2" t="inlineStr">
         <is>
-          <t>+33 6 11 44 60 92</t>
+          <t>+33 (0)6 75 80 33 57</t>
         </is>
       </c>
       <c r="L126" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)2 69 16 17 55</t>
+          <t>+33 3 39 75 27 81</t>
         </is>
       </c>
       <c r="M126" s="3" t="n">
@@ -7779,28 +7747,28 @@
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Lopes</t>
+          <t>Grenier</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>rue Pereira</t>
+          <t>8, boulevard de Dijoux</t>
         </is>
       </c>
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="3" t="inlineStr">
         <is>
-          <t>73702</t>
+          <t>17960</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>Saint Denise-les-Bains</t>
+          <t>Aubert</t>
         </is>
       </c>
       <c r="I127" s="2" t="inlineStr">
@@ -7810,17 +7778,13 @@
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>zbigot@mace.com</t>
-        </is>
-      </c>
-      <c r="K127" s="3" t="inlineStr">
-        <is>
-          <t>+33 (0)4 74 68 68 53</t>
-        </is>
-      </c>
+          <t>emiliepoulain@tiscali.fr</t>
+        </is>
+      </c>
+      <c r="K127" s="3" t="inlineStr"/>
       <c r="L127" s="3" t="inlineStr">
         <is>
-          <t>0344102269</t>
+          <t>+33 1 54 14 81 24</t>
         </is>
       </c>
       <c r="M127" s="3" t="n">
@@ -7838,28 +7802,28 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Dias</t>
+          <t>Techer</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>Frédéric</t>
+          <t>Auguste</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>743, rue de Etienne</t>
+          <t>10, boulevard de Colin</t>
         </is>
       </c>
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="3" t="inlineStr">
         <is>
-          <t>83766</t>
+          <t>99268</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>Carlier</t>
+          <t>Fauredan</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
@@ -7869,17 +7833,17 @@
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>rolandbailly@prevost.com</t>
+          <t>xavier50@de.fr</t>
         </is>
       </c>
       <c r="K128" s="3" t="inlineStr">
         <is>
-          <t>0100057197</t>
+          <t>06 91 58 05 18</t>
         </is>
       </c>
       <c r="L128" s="3" t="inlineStr">
         <is>
-          <t>01 97 66 79 68</t>
+          <t>01 49 38 98 79</t>
         </is>
       </c>
       <c r="M128" s="3" t="n">
@@ -7897,28 +7861,28 @@
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Thibault</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>André</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>77, boulevard Alain Pierre</t>
+          <t>rue de Faivre</t>
         </is>
       </c>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="3" t="inlineStr">
         <is>
-          <t>98560</t>
+          <t>88713</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
         <is>
-          <t>Gerard</t>
+          <t>BoyerVille</t>
         </is>
       </c>
       <c r="I129" s="2" t="inlineStr">
@@ -7928,17 +7892,13 @@
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>margot77@dufour.fr</t>
-        </is>
-      </c>
-      <c r="K129" s="3" t="inlineStr">
-        <is>
-          <t>+33 (0)4 82 63 23 86</t>
-        </is>
-      </c>
+          <t>danielgrondin@wanadoo.fr</t>
+        </is>
+      </c>
+      <c r="K129" s="3" t="inlineStr"/>
       <c r="L129" s="3" t="inlineStr">
         <is>
-          <t>+33 3 23 52 42 19</t>
+          <t>01 50 64 21 87</t>
         </is>
       </c>
       <c r="M129" s="3" t="n">
@@ -7956,28 +7916,28 @@
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Allard</t>
+          <t>Lambert</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Adrien</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>chemin Hamel</t>
+          <t>782, avenue de Poulain</t>
         </is>
       </c>
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="3" t="inlineStr">
         <is>
-          <t>93747</t>
+          <t>36333</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>Sainte Antoineboeuf</t>
+          <t>Benoitnec</t>
         </is>
       </c>
       <c r="I130" s="2" t="inlineStr">
@@ -7987,17 +7947,17 @@
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>cecile27@marques.com</t>
+          <t>caroline66@yahoo.fr</t>
         </is>
       </c>
       <c r="K130" s="2" t="inlineStr">
         <is>
-          <t>08 02 10 27 11</t>
+          <t>04 14 62 01 29</t>
         </is>
       </c>
       <c r="L130" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)1 53 35 89 05</t>
+          <t>01 99 90 70 39</t>
         </is>
       </c>
       <c r="M130" s="3" t="n">
@@ -8015,28 +7975,28 @@
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Tessier</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>Bernard</t>
+          <t>René</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>231, chemin de Bodin</t>
+          <t>43, avenue Augustin Parent</t>
         </is>
       </c>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="3" t="inlineStr">
         <is>
-          <t>85767</t>
+          <t>95806</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>Huet</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="I131" s="2" t="inlineStr">
@@ -8046,17 +8006,13 @@
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>thibaultroche@le.fr</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="inlineStr">
-        <is>
-          <t>+33 (0)8 02 50 55 65</t>
-        </is>
-      </c>
+          <t>delmascatherine@tiscali.fr</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="3" t="inlineStr">
         <is>
-          <t>+33 1 18 70 45 45</t>
+          <t>0620409273</t>
         </is>
       </c>
       <c r="M131" s="3" t="n">
@@ -8074,28 +8030,28 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Meyer</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>36, rue de Giraud</t>
+          <t>44, rue Franck Georges</t>
         </is>
       </c>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="3" t="inlineStr">
         <is>
-          <t>10619</t>
+          <t>77056</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
         <is>
-          <t>Sainte Marcelboeuf</t>
+          <t>Briand</t>
         </is>
       </c>
       <c r="I132" s="2" t="inlineStr">
@@ -8105,13 +8061,17 @@
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>valettecharles@voila.fr</t>
-        </is>
-      </c>
-      <c r="K132" s="3" t="inlineStr"/>
+          <t>oliviedelattre@noos.fr</t>
+        </is>
+      </c>
+      <c r="K132" s="3" t="inlineStr">
+        <is>
+          <t>+33 1 71 12 36 88</t>
+        </is>
+      </c>
       <c r="L132" s="3" t="inlineStr">
         <is>
-          <t>03 04 51 70 26</t>
+          <t>+33 (0)1 77 18 76 81</t>
         </is>
       </c>
       <c r="M132" s="3" t="n">
@@ -8129,28 +8089,28 @@
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Bruneau</t>
+          <t>Laurent</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>Arthur</t>
+          <t>François</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>rue de Neveu</t>
+          <t>41, chemin Adrien Laroche</t>
         </is>
       </c>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="3" t="inlineStr">
         <is>
-          <t>49318</t>
+          <t>14917</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>Sainte Alicenec</t>
+          <t>Michel</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
@@ -8160,13 +8120,17 @@
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>levyaimee@guyot.net</t>
-        </is>
-      </c>
-      <c r="K133" s="3" t="inlineStr"/>
+          <t>hleveque@moreau.com</t>
+        </is>
+      </c>
+      <c r="K133" s="3" t="inlineStr">
+        <is>
+          <t>+33 1 75 15 95 07</t>
+        </is>
+      </c>
       <c r="L133" s="3" t="inlineStr">
         <is>
-          <t>01 43 02 79 56</t>
+          <t>+33 2 61 29 84 55</t>
         </is>
       </c>
       <c r="M133" s="3" t="n">
@@ -8184,28 +8148,28 @@
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Wagner</t>
+          <t>Lebon</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>William</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>37, boulevard de Gallet</t>
+          <t>89, rue de Laroche</t>
         </is>
       </c>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="3" t="inlineStr">
         <is>
-          <t>38511</t>
+          <t>97449</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>Laine</t>
+          <t>PhilippeBourg</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
@@ -8215,13 +8179,13 @@
       </c>
       <c r="J134" s="2" t="inlineStr">
         <is>
-          <t>hchauvin@yahoo.fr</t>
+          <t>margaudpages@wanadoo.fr</t>
         </is>
       </c>
       <c r="K134" s="3" t="inlineStr"/>
       <c r="L134" s="3" t="inlineStr">
         <is>
-          <t>+33 3 94 72 57 89</t>
+          <t>+33 (0)4 57 02 41 50</t>
         </is>
       </c>
       <c r="M134" s="3" t="n">
@@ -8239,28 +8203,28 @@
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Descamps</t>
+          <t>Guyon</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Jacqueline</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>chemin Traore</t>
+          <t>77, avenue de Courtois</t>
         </is>
       </c>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="3" t="inlineStr">
         <is>
-          <t>82344</t>
+          <t>92211</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>BuissonVille</t>
+          <t>Denis-les-Bains</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
@@ -8270,17 +8234,17 @@
       </c>
       <c r="J135" s="2" t="inlineStr">
         <is>
-          <t>jules92@club-internet.fr</t>
+          <t>denisjourdan@petitjean.com</t>
         </is>
       </c>
       <c r="K135" s="2" t="inlineStr">
         <is>
-          <t>+33 6 90 32 96 71</t>
+          <t>+33 (0)5 40 15 05 07</t>
         </is>
       </c>
       <c r="L135" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)3 87 51 15 29</t>
+          <t>+33 (0)5 24 51 67 93</t>
         </is>
       </c>
       <c r="M135" s="3" t="n">
@@ -8298,28 +8262,28 @@
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Hoareau</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>5, rue Christelle Alexandre</t>
+          <t>824, chemin de Samson</t>
         </is>
       </c>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="3" t="inlineStr">
         <is>
-          <t>17834</t>
+          <t>97712</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>Brun</t>
+          <t>Gautier</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
@@ -8329,13 +8293,17 @@
       </c>
       <c r="J136" s="2" t="inlineStr">
         <is>
-          <t>umorvan@bonnet.fr</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="inlineStr"/>
+          <t>jcharrier@wanadoo.fr</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="inlineStr">
+        <is>
+          <t>+33 2 22 41 98 62</t>
+        </is>
+      </c>
       <c r="L136" s="3" t="inlineStr">
         <is>
-          <t>01 01 87 57 17</t>
+          <t>0117522651</t>
         </is>
       </c>
       <c r="M136" s="3" t="n">
@@ -8353,28 +8321,28 @@
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Pelletier</t>
+          <t>Riou</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Léon</t>
+          <t>Augustin</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>72, rue Ramos</t>
+          <t>10, chemin de Chevalier</t>
         </is>
       </c>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="3" t="inlineStr">
         <is>
-          <t>77356</t>
+          <t>04162</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
         <is>
-          <t>Jacquet</t>
+          <t>Masse-sur-Toussaint</t>
         </is>
       </c>
       <c r="I137" s="2" t="inlineStr">
@@ -8384,17 +8352,13 @@
       </c>
       <c r="J137" s="2" t="inlineStr">
         <is>
-          <t>andremargaud@fournier.org</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="inlineStr">
-        <is>
-          <t>+33 (0)1 19 94 59 16</t>
-        </is>
-      </c>
+          <t>obaron@rousset.fr</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="3" t="inlineStr">
         <is>
-          <t>0306676689</t>
+          <t>02 80 07 77 69</t>
         </is>
       </c>
       <c r="M137" s="3" t="n">
@@ -8412,28 +8376,28 @@
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Gillet</t>
+          <t>Chauvin</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Anouk</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>avenue Alice Bailly</t>
+          <t>14, chemin Delattre</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="3" t="inlineStr">
         <is>
-          <t>93482</t>
+          <t>09490</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>Lefebvre</t>
+          <t>PintoBourg</t>
         </is>
       </c>
       <c r="I138" s="2" t="inlineStr">
@@ -8443,17 +8407,17 @@
       </c>
       <c r="J138" s="2" t="inlineStr">
         <is>
-          <t>edouardleclercq@bouygtel.fr</t>
+          <t>christine76@noos.fr</t>
         </is>
       </c>
       <c r="K138" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)4 61 86 49 19</t>
+          <t>0544532706</t>
         </is>
       </c>
       <c r="L138" s="3" t="inlineStr">
         <is>
-          <t>+33 1 07 70 36 73</t>
+          <t>0546454788</t>
         </is>
       </c>
       <c r="M138" s="3" t="n">
@@ -8471,28 +8435,28 @@
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Charpentier</t>
+          <t>Grenier</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Arthur</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>82, rue de Gallet</t>
+          <t>774, chemin de Fournier</t>
         </is>
       </c>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="3" t="inlineStr">
         <is>
-          <t>64614</t>
+          <t>20115</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
         <is>
-          <t>Sainte Jules</t>
+          <t>Rossi-sur-Parent</t>
         </is>
       </c>
       <c r="I139" s="2" t="inlineStr">
@@ -8502,13 +8466,13 @@
       </c>
       <c r="J139" s="2" t="inlineStr">
         <is>
-          <t>legrandvirginie@olivier.fr</t>
+          <t>pbodin@bouygtel.fr</t>
         </is>
       </c>
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="3" t="inlineStr">
         <is>
-          <t>+33 (0)6 36 92 57 48</t>
+          <t>+33 (0)3 33 03 78 01</t>
         </is>
       </c>
       <c r="M139" s="3" t="n">
@@ -8526,28 +8490,28 @@
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Lombard</t>
+          <t>Leveque</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Hugues</t>
+          <t>René</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>4, rue Pinto</t>
+          <t>58, rue Vincent Gaudin</t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="3" t="inlineStr">
         <is>
-          <t>42548</t>
+          <t>98495</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
         <is>
-          <t>Lecoq</t>
+          <t>Clement</t>
         </is>
       </c>
       <c r="I140" s="2" t="inlineStr">
@@ -8557,17 +8521,17 @@
       </c>
       <c r="J140" s="2" t="inlineStr">
         <is>
-          <t>colinmarcel@dias.org</t>
+          <t>urodrigues@bouygtel.fr</t>
         </is>
       </c>
       <c r="K140" s="2" t="inlineStr">
         <is>
-          <t>03 76 36 35 16</t>
+          <t>05 85 05 16 95</t>
         </is>
       </c>
       <c r="L140" s="3" t="inlineStr">
         <is>
-          <t>0347177882</t>
+          <t>01 84 55 47 92</t>
         </is>
       </c>
       <c r="M140" s="3" t="n">
